--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_5_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_5_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3660758.782232672</v>
+        <v>3659416.256232626</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1183418.911521202</v>
+        <v>1183418.911521203</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383260.7088960207</v>
+        <v>383260.7088960218</v>
       </c>
     </row>
     <row r="9">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>75.08620022294134</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -707,7 +707,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -716,7 +716,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>43.09198093152767</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>87.86737129411912</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>52.00379634267769</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>33.60023339142369</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>186.0850531309659</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -941,13 +941,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1029,16 +1029,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>109.5510830126962</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>116.8740818208393</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>71.01467844038824</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>18.29749587628863</v>
       </c>
     </row>
     <row r="9">
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>193.4616495665634</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>29.05241763862477</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>292.7428113915151</v>
+        <v>292.7428113915146</v>
       </c>
       <c r="C11" t="n">
         <v>275.2818614990421</v>
       </c>
       <c r="D11" t="n">
-        <v>264.6920113487175</v>
+        <v>264.6920113487174</v>
       </c>
       <c r="E11" t="n">
-        <v>291.9393398002963</v>
+        <v>291.9393398002962</v>
       </c>
       <c r="F11" t="n">
-        <v>316.885015469746</v>
+        <v>316.8850154697459</v>
       </c>
       <c r="G11" t="n">
-        <v>323.0508974529291</v>
+        <v>323.050897452929</v>
       </c>
       <c r="H11" t="n">
         <v>226.3302535795011</v>
       </c>
       <c r="I11" t="n">
-        <v>33.32498986019348</v>
+        <v>33.32498986019347</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.51083621917442</v>
+        <v>67.51083621917439</v>
       </c>
       <c r="T11" t="n">
         <v>123.2081244353881</v>
       </c>
       <c r="U11" t="n">
-        <v>161.1737578526518</v>
+        <v>161.1737578526517</v>
       </c>
       <c r="V11" t="n">
-        <v>237.761228198168</v>
+        <v>237.7612281981694</v>
       </c>
       <c r="W11" t="n">
         <v>259.2499384454475</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.8409499099718</v>
+        <v>89.84094990997178</v>
       </c>
       <c r="C13" t="n">
-        <v>77.25579082666233</v>
+        <v>77.25579082666232</v>
       </c>
       <c r="D13" t="n">
-        <v>58.62444274624686</v>
+        <v>58.62444274624684</v>
       </c>
       <c r="E13" t="n">
-        <v>56.44293237460367</v>
+        <v>56.44293237460366</v>
       </c>
       <c r="F13" t="n">
-        <v>55.43001775096575</v>
+        <v>55.43001775096573</v>
       </c>
       <c r="G13" t="n">
-        <v>76.985827645748</v>
+        <v>76.98582764574807</v>
       </c>
       <c r="H13" t="n">
-        <v>63.21968069866696</v>
+        <v>63.21968069866695</v>
       </c>
       <c r="I13" t="n">
-        <v>34.96204714633787</v>
+        <v>34.96204714633785</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.70377341497093</v>
+        <v>41.70377341497092</v>
       </c>
       <c r="S13" t="n">
-        <v>116.3521968385659</v>
+        <v>116.3521968385658</v>
       </c>
       <c r="T13" t="n">
         <v>133.6214948185866</v>
       </c>
       <c r="U13" t="n">
-        <v>196.2726833695757</v>
+        <v>196.2726833695762</v>
       </c>
       <c r="V13" t="n">
         <v>162.1466130518625</v>
@@ -1591,7 +1591,7 @@
         <v>196.5319680646255</v>
       </c>
       <c r="X13" t="n">
-        <v>135.7186251170717</v>
+        <v>135.7186251170716</v>
       </c>
       <c r="Y13" t="n">
         <v>128.5936230801293</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>292.7428113915151</v>
+        <v>292.742811391515</v>
       </c>
       <c r="C14" t="n">
         <v>275.2818614990421</v>
       </c>
       <c r="D14" t="n">
-        <v>264.6920113487175</v>
+        <v>264.6920113487174</v>
       </c>
       <c r="E14" t="n">
-        <v>291.9393398002963</v>
+        <v>291.9393398002962</v>
       </c>
       <c r="F14" t="n">
-        <v>316.885015469746</v>
+        <v>316.8850154697459</v>
       </c>
       <c r="G14" t="n">
-        <v>323.0508974529291</v>
+        <v>323.050897452929</v>
       </c>
       <c r="H14" t="n">
-        <v>226.3302535795011</v>
+        <v>226.3302535795007</v>
       </c>
       <c r="I14" t="n">
-        <v>33.32498986019348</v>
+        <v>33.32498986019344</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="S14" t="n">
-        <v>67.51083621917441</v>
+        <v>67.51083621917438</v>
       </c>
       <c r="T14" t="n">
-        <v>123.2081244353881</v>
+        <v>123.208124435388</v>
       </c>
       <c r="U14" t="n">
-        <v>161.1737578526518</v>
+        <v>161.1737578526517</v>
       </c>
       <c r="V14" t="n">
         <v>237.7612281981694</v>
@@ -1704,7 +1704,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I15" t="n">
-        <v>47.74894400914858</v>
+        <v>47.74894400914857</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.05405284676738</v>
+        <v>25.05405284676735</v>
       </c>
       <c r="S15" t="n">
-        <v>149.2146408812903</v>
+        <v>149.2146408812902</v>
       </c>
       <c r="T15" t="n">
         <v>195.2890311093384</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.8409499099718</v>
+        <v>89.84094990997178</v>
       </c>
       <c r="C16" t="n">
-        <v>77.25579082666233</v>
+        <v>77.25579082666232</v>
       </c>
       <c r="D16" t="n">
-        <v>58.62444274624686</v>
+        <v>58.62444274624684</v>
       </c>
       <c r="E16" t="n">
-        <v>56.44293237460367</v>
+        <v>56.44293237460366</v>
       </c>
       <c r="F16" t="n">
-        <v>55.43001775096575</v>
+        <v>55.43001775096573</v>
       </c>
       <c r="G16" t="n">
         <v>76.98582764574807</v>
       </c>
       <c r="H16" t="n">
-        <v>63.21968069866698</v>
+        <v>63.21968069866695</v>
       </c>
       <c r="I16" t="n">
-        <v>34.96204714633787</v>
+        <v>34.96204714633784</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.70377341497094</v>
+        <v>41.7037734149709</v>
       </c>
       <c r="S16" t="n">
         <v>116.3521968385658</v>
@@ -1828,7 +1828,7 @@
         <v>196.5319680646255</v>
       </c>
       <c r="X16" t="n">
-        <v>135.7186251170717</v>
+        <v>135.7186251170716</v>
       </c>
       <c r="Y16" t="n">
         <v>128.5936230801293</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>292.7428113915151</v>
+        <v>292.742811391515</v>
       </c>
       <c r="C17" t="n">
         <v>275.2818614990421</v>
       </c>
       <c r="D17" t="n">
-        <v>264.6920113487175</v>
+        <v>264.6920113487174</v>
       </c>
       <c r="E17" t="n">
-        <v>291.9393398002963</v>
+        <v>291.9393398002962</v>
       </c>
       <c r="F17" t="n">
-        <v>316.885015469746</v>
+        <v>316.8850154697459</v>
       </c>
       <c r="G17" t="n">
-        <v>323.0508974529291</v>
+        <v>323.050897452929</v>
       </c>
       <c r="H17" t="n">
         <v>226.3302535795011</v>
       </c>
       <c r="I17" t="n">
-        <v>33.3249898601935</v>
+        <v>33.32498986019344</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>67.51083621917442</v>
+        <v>67.51083621917437</v>
       </c>
       <c r="T17" t="n">
-        <v>123.2081244353881</v>
+        <v>123.208124435388</v>
       </c>
       <c r="U17" t="n">
-        <v>161.1737578526518</v>
+        <v>161.1737578526517</v>
       </c>
       <c r="V17" t="n">
         <v>237.7612281981694</v>
@@ -1941,7 +1941,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I18" t="n">
-        <v>47.74894400914858</v>
+        <v>47.74894400914857</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.05405284676738</v>
+        <v>25.05405284676735</v>
       </c>
       <c r="S18" t="n">
-        <v>149.2146408812903</v>
+        <v>149.2146408812902</v>
       </c>
       <c r="T18" t="n">
         <v>195.2890311093384</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.84094990997181</v>
+        <v>89.84094990997178</v>
       </c>
       <c r="C19" t="n">
-        <v>77.25579082666235</v>
+        <v>77.25579082666232</v>
       </c>
       <c r="D19" t="n">
-        <v>58.62444274624687</v>
+        <v>58.62444274624684</v>
       </c>
       <c r="E19" t="n">
-        <v>56.44293237460369</v>
+        <v>56.44293237460366</v>
       </c>
       <c r="F19" t="n">
-        <v>55.43001775096576</v>
+        <v>55.43001775096573</v>
       </c>
       <c r="G19" t="n">
-        <v>76.98582764574809</v>
+        <v>76.98582764574807</v>
       </c>
       <c r="H19" t="n">
-        <v>63.21968069866699</v>
+        <v>63.21968069866695</v>
       </c>
       <c r="I19" t="n">
-        <v>34.96204714633788</v>
+        <v>34.96204714633784</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.70377341497095</v>
+        <v>41.70377341497171</v>
       </c>
       <c r="S19" t="n">
         <v>116.3521968385658</v>
@@ -2065,7 +2065,7 @@
         <v>196.5319680646255</v>
       </c>
       <c r="X19" t="n">
-        <v>135.7186251170717</v>
+        <v>135.7186251170716</v>
       </c>
       <c r="Y19" t="n">
         <v>128.5936230801293</v>
@@ -2093,10 +2093,10 @@
         <v>316.8850154697459</v>
       </c>
       <c r="G20" t="n">
-        <v>323.050897452929</v>
+        <v>323.0508974529299</v>
       </c>
       <c r="H20" t="n">
-        <v>226.330253579502</v>
+        <v>226.3302535795011</v>
       </c>
       <c r="I20" t="n">
         <v>33.32498986019344</v>
@@ -2336,7 +2336,7 @@
         <v>226.3302535795011</v>
       </c>
       <c r="I23" t="n">
-        <v>33.32498986019345</v>
+        <v>33.32498986019344</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>67.51083621917439</v>
+        <v>67.51083621917437</v>
       </c>
       <c r="T23" t="n">
         <v>123.208124435388</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.05405284676736</v>
+        <v>25.05405284676735</v>
       </c>
       <c r="S24" t="n">
-        <v>149.2146408812903</v>
+        <v>149.2146408812902</v>
       </c>
       <c r="T24" t="n">
         <v>195.2890311093384</v>
@@ -2494,7 +2494,7 @@
         <v>63.21968069866695</v>
       </c>
       <c r="I25" t="n">
-        <v>34.96204714633785</v>
+        <v>34.96204714633784</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>316.885015469746</v>
       </c>
       <c r="G26" t="n">
-        <v>323.0508974529292</v>
+        <v>323.0508974529291</v>
       </c>
       <c r="H26" t="n">
-        <v>226.3302535795011</v>
+        <v>226.3302535795013</v>
       </c>
       <c r="I26" t="n">
-        <v>33.3249898601935</v>
+        <v>33.32498986019348</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.51083621917444</v>
+        <v>67.51083621917442</v>
       </c>
       <c r="T26" t="n">
         <v>123.2081244353881</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.05405284676736</v>
+        <v>25.05405284676735</v>
       </c>
       <c r="S27" t="n">
-        <v>149.2146408812903</v>
+        <v>149.2146408812902</v>
       </c>
       <c r="T27" t="n">
         <v>195.2890311093384</v>
@@ -2725,13 +2725,13 @@
         <v>55.43001775096577</v>
       </c>
       <c r="G28" t="n">
-        <v>76.9858276457481</v>
+        <v>76.98582764574812</v>
       </c>
       <c r="H28" t="n">
-        <v>63.21968069866701</v>
+        <v>63.21968069866699</v>
       </c>
       <c r="I28" t="n">
-        <v>34.96204714633789</v>
+        <v>34.96204714633788</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>41.70377341497094</v>
       </c>
       <c r="S28" t="n">
-        <v>116.3521968385659</v>
+        <v>116.3521968385658</v>
       </c>
       <c r="T28" t="n">
-        <v>133.6214948185867</v>
+        <v>133.6214948185866</v>
       </c>
       <c r="U28" t="n">
-        <v>196.2726833695756</v>
+        <v>196.2726833695757</v>
       </c>
       <c r="V28" t="n">
         <v>162.1466130518625</v>
@@ -2779,7 +2779,7 @@
         <v>135.7186251170717</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801295</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>226.3302535795011</v>
       </c>
       <c r="I29" t="n">
-        <v>33.32498986019347</v>
+        <v>33.32498986019348</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.05405284676736</v>
+        <v>25.05405284676735</v>
       </c>
       <c r="S30" t="n">
-        <v>149.2146408812903</v>
+        <v>149.2146408812902</v>
       </c>
       <c r="T30" t="n">
         <v>195.2890311093384</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.8409499099718</v>
+        <v>89.84094990997183</v>
       </c>
       <c r="C31" t="n">
-        <v>77.25579082666233</v>
+        <v>77.25579082666236</v>
       </c>
       <c r="D31" t="n">
-        <v>58.62444274624686</v>
+        <v>58.62444274624688</v>
       </c>
       <c r="E31" t="n">
-        <v>56.44293237460367</v>
+        <v>56.4429323746037</v>
       </c>
       <c r="F31" t="n">
-        <v>55.43001775096575</v>
+        <v>55.43001775096577</v>
       </c>
       <c r="G31" t="n">
-        <v>76.98582764574807</v>
+        <v>76.9858276457481</v>
       </c>
       <c r="H31" t="n">
         <v>63.21968069866698</v>
       </c>
       <c r="I31" t="n">
-        <v>34.96204714633787</v>
+        <v>34.96204714633788</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.70377341497091</v>
+        <v>41.70377341497094</v>
       </c>
       <c r="S31" t="n">
-        <v>116.3521968385658</v>
+        <v>116.3521968385659</v>
       </c>
       <c r="T31" t="n">
-        <v>133.6214948185866</v>
+        <v>133.6214948185867</v>
       </c>
       <c r="U31" t="n">
         <v>196.2726833695756</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>292.742811391515</v>
+        <v>292.7428113915151</v>
       </c>
       <c r="C32" t="n">
-        <v>275.281861499042</v>
+        <v>275.2818614990421</v>
       </c>
       <c r="D32" t="n">
-        <v>264.6920113487174</v>
+        <v>264.6920113487175</v>
       </c>
       <c r="E32" t="n">
-        <v>291.9393398002962</v>
+        <v>291.9393398002963</v>
       </c>
       <c r="F32" t="n">
-        <v>316.8850154697459</v>
+        <v>316.885015469746</v>
       </c>
       <c r="G32" t="n">
-        <v>323.050897452929</v>
+        <v>323.0508974529291</v>
       </c>
       <c r="H32" t="n">
         <v>226.3302535795011</v>
       </c>
       <c r="I32" t="n">
-        <v>33.32498986019344</v>
+        <v>33.32498986019347</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.51083621917438</v>
+        <v>67.51083621917439</v>
       </c>
       <c r="T32" t="n">
-        <v>123.208124435388</v>
+        <v>123.2081244353881</v>
       </c>
       <c r="U32" t="n">
-        <v>161.1737578526517</v>
+        <v>161.1737578526518</v>
       </c>
       <c r="V32" t="n">
         <v>237.7612281981694</v>
@@ -3095,7 +3095,7 @@
         <v>279.7400704065035</v>
       </c>
       <c r="Y32" t="n">
-        <v>296.246908384088</v>
+        <v>296.2469083840881</v>
       </c>
     </row>
     <row r="33">
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.05405284676736</v>
+        <v>25.05405284676735</v>
       </c>
       <c r="S33" t="n">
-        <v>149.2146408812903</v>
+        <v>149.2146408812902</v>
       </c>
       <c r="T33" t="n">
         <v>195.2890311093384</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>89.84094990997177</v>
+        <v>89.84094990997181</v>
       </c>
       <c r="C34" t="n">
-        <v>77.25579082666231</v>
+        <v>77.25579082666235</v>
       </c>
       <c r="D34" t="n">
-        <v>58.62444274624683</v>
+        <v>58.62444274624687</v>
       </c>
       <c r="E34" t="n">
-        <v>56.44293237460364</v>
+        <v>56.44293237460369</v>
       </c>
       <c r="F34" t="n">
-        <v>55.43001775096572</v>
+        <v>55.43001775096576</v>
       </c>
       <c r="G34" t="n">
-        <v>76.98582764574806</v>
+        <v>76.9858276457481</v>
       </c>
       <c r="H34" t="n">
-        <v>63.21968069866693</v>
+        <v>63.21968069866698</v>
       </c>
       <c r="I34" t="n">
-        <v>34.96204714633783</v>
+        <v>34.96204714633787</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.70377341497089</v>
+        <v>41.70377341497093</v>
       </c>
       <c r="S34" t="n">
         <v>116.3521968385658</v>
@@ -3241,7 +3241,7 @@
         <v>133.6214948185866</v>
       </c>
       <c r="U34" t="n">
-        <v>196.2726833695756</v>
+        <v>196.2726833695757</v>
       </c>
       <c r="V34" t="n">
         <v>162.1466130518625</v>
@@ -3250,10 +3250,10 @@
         <v>196.5319680646255</v>
       </c>
       <c r="X34" t="n">
-        <v>135.7186251170716</v>
+        <v>135.7186251170717</v>
       </c>
       <c r="Y34" t="n">
-        <v>128.5936230801292</v>
+        <v>128.5936230801293</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>226.3302535795011</v>
       </c>
       <c r="I35" t="n">
-        <v>33.32498986019347</v>
+        <v>33.32498986019348</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.51083621917287</v>
+        <v>67.51083621917441</v>
       </c>
       <c r="T35" t="n">
         <v>123.2081244353881</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.05405284676736</v>
+        <v>25.05405284676735</v>
       </c>
       <c r="S36" t="n">
-        <v>149.2146408812903</v>
+        <v>149.2146408812902</v>
       </c>
       <c r="T36" t="n">
         <v>195.2890311093384</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.8409499099718</v>
+        <v>89.84094990997183</v>
       </c>
       <c r="C37" t="n">
-        <v>77.25579082666233</v>
+        <v>77.25579082666236</v>
       </c>
       <c r="D37" t="n">
-        <v>58.62444274624686</v>
+        <v>58.62444274624688</v>
       </c>
       <c r="E37" t="n">
-        <v>56.44293237460367</v>
+        <v>56.4429323746037</v>
       </c>
       <c r="F37" t="n">
-        <v>55.43001775096575</v>
+        <v>55.43001775096577</v>
       </c>
       <c r="G37" t="n">
-        <v>76.98582764574809</v>
+        <v>76.98582764574812</v>
       </c>
       <c r="H37" t="n">
-        <v>63.21968069866696</v>
+        <v>63.21968069866706</v>
       </c>
       <c r="I37" t="n">
-        <v>34.96204714633786</v>
+        <v>34.96204714633788</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.70377341497092</v>
+        <v>41.70377341497094</v>
       </c>
       <c r="S37" t="n">
         <v>116.3521968385658</v>
@@ -3521,7 +3521,7 @@
         <v>226.3302535795011</v>
       </c>
       <c r="I38" t="n">
-        <v>33.32498986019347</v>
+        <v>33.32498986019348</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>67.51083621917441</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.05405284676736</v>
+        <v>25.05405284676735</v>
       </c>
       <c r="S39" t="n">
-        <v>149.2146408812903</v>
+        <v>149.2146408812902</v>
       </c>
       <c r="T39" t="n">
         <v>195.2890311093384</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.8409499099718</v>
+        <v>89.84094990997183</v>
       </c>
       <c r="C40" t="n">
-        <v>77.25579082666233</v>
+        <v>77.25579082666236</v>
       </c>
       <c r="D40" t="n">
-        <v>58.62444274624686</v>
+        <v>58.62444274624688</v>
       </c>
       <c r="E40" t="n">
-        <v>56.44293237460367</v>
+        <v>56.4429323746037</v>
       </c>
       <c r="F40" t="n">
-        <v>55.43001775096575</v>
+        <v>55.43001775096577</v>
       </c>
       <c r="G40" t="n">
-        <v>76.98582764574807</v>
+        <v>76.98582764574812</v>
       </c>
       <c r="H40" t="n">
-        <v>63.21968069866698</v>
+        <v>63.21968069866699</v>
       </c>
       <c r="I40" t="n">
-        <v>34.96204714633787</v>
+        <v>34.96204714633788</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.70377341497091</v>
+        <v>41.70377341497094</v>
       </c>
       <c r="S40" t="n">
         <v>116.3521968385658</v>
@@ -3715,7 +3715,7 @@
         <v>133.6214948185866</v>
       </c>
       <c r="U40" t="n">
-        <v>196.2726833695756</v>
+        <v>196.2726833695757</v>
       </c>
       <c r="V40" t="n">
         <v>162.1466130518625</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>336.1427912911787</v>
+        <v>336.1427912911789</v>
       </c>
       <c r="C41" t="n">
-        <v>318.6818413987057</v>
+        <v>34.13302025634133</v>
       </c>
       <c r="D41" t="n">
-        <v>308.0919912483811</v>
+        <v>308.0919912483813</v>
       </c>
       <c r="E41" t="n">
-        <v>335.3393196999599</v>
+        <v>335.3393196999601</v>
       </c>
       <c r="F41" t="n">
-        <v>360.2849953694096</v>
+        <v>360.2849953694098</v>
       </c>
       <c r="G41" t="n">
-        <v>366.4508773525927</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>177.5481629502725</v>
+        <v>269.730233479165</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>76.7249697598573</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>110.9108161188383</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>166.6081043350519</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>204.5737377523156</v>
       </c>
       <c r="V41" t="n">
-        <v>281.161208097833</v>
+        <v>281.1612080978333</v>
       </c>
       <c r="W41" t="n">
-        <v>302.6499183451111</v>
+        <v>302.6499183451114</v>
       </c>
       <c r="X41" t="n">
-        <v>323.1400503061672</v>
+        <v>323.1400503061674</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.6468882837517</v>
+        <v>339.6468882837519</v>
       </c>
     </row>
     <row r="42">
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.05405284676736</v>
+        <v>25.05405284676735</v>
       </c>
       <c r="S42" t="n">
-        <v>149.2146408812903</v>
+        <v>149.2146408812902</v>
       </c>
       <c r="T42" t="n">
         <v>195.2890311093384</v>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>4.006616753035104</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>78.36202704600171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>159.7521767382294</v>
+        <v>159.7521767382297</v>
       </c>
       <c r="T43" t="n">
-        <v>177.0214747182502</v>
+        <v>177.0214747182505</v>
       </c>
       <c r="U43" t="n">
-        <v>239.6726632692393</v>
+        <v>239.6726632692395</v>
       </c>
       <c r="V43" t="n">
-        <v>205.5465929515261</v>
+        <v>205.5465929515263</v>
       </c>
       <c r="W43" t="n">
-        <v>239.9319479642891</v>
+        <v>239.9319479642893</v>
       </c>
       <c r="X43" t="n">
-        <v>179.1186050167352</v>
+        <v>179.1186050167355</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.36864379904026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>336.1427912911787</v>
+        <v>336.1427912911789</v>
       </c>
       <c r="C44" t="n">
-        <v>318.6818413987057</v>
+        <v>318.6818413987059</v>
       </c>
       <c r="D44" t="n">
-        <v>308.0919912483811</v>
+        <v>308.0919912483813</v>
       </c>
       <c r="E44" t="n">
-        <v>335.3393196999599</v>
+        <v>63.71450930997137</v>
       </c>
       <c r="F44" t="n">
-        <v>360.2849953694096</v>
+        <v>360.2849953694098</v>
       </c>
       <c r="G44" t="n">
-        <v>366.4508773525927</v>
+        <v>366.4508773525929</v>
       </c>
       <c r="H44" t="n">
-        <v>269.7302334791647</v>
+        <v>269.730233479165</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>110.9108161188383</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>166.6081043350519</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>204.5737377523156</v>
       </c>
       <c r="V44" t="n">
-        <v>188.9791375689398</v>
+        <v>281.1612080978333</v>
       </c>
       <c r="W44" t="n">
-        <v>302.6499183451111</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>323.1400503061672</v>
+        <v>323.1400503061674</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.6468882837517</v>
+        <v>339.6468882837519</v>
       </c>
     </row>
     <row r="45">
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.05405284676736</v>
+        <v>25.05405284676735</v>
       </c>
       <c r="S45" t="n">
-        <v>149.2146408812903</v>
+        <v>149.2146408812902</v>
       </c>
       <c r="T45" t="n">
         <v>195.2890311093384</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>133.2409298096356</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>120.6557707263262</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>102.0244226459107</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.84291227426753</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>98.82999765062961</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>120.385807545412</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>106.6196605983308</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>78.36202704600171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>85.10375331463476</v>
       </c>
       <c r="S46" t="n">
-        <v>159.7521767382295</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>177.0214747182502</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>239.6726632692393</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>205.5465929515261</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>239.9319479642891</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>179.1186050167353</v>
+        <v>166.3532198663657</v>
       </c>
       <c r="Y46" t="n">
-        <v>82.36864379903977</v>
+        <v>171.9936029797931</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122.6530896684844</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="C2" t="n">
-        <v>122.6530896684844</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="D2" t="n">
-        <v>122.6530896684844</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="E2" t="n">
-        <v>122.6530896684844</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="F2" t="n">
         <v>46.80844297864461</v>
@@ -4355,25 +4355,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U2" t="n">
-        <v>122.6530896684844</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V2" t="n">
-        <v>122.6530896684844</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="W2" t="n">
-        <v>122.6530896684844</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="X2" t="n">
-        <v>122.6530896684844</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.6530896684844</v>
+        <v>290.2572196227447</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>486.9119902784999</v>
+        <v>307.7005108416342</v>
       </c>
       <c r="C3" t="n">
-        <v>312.4589609973729</v>
+        <v>307.7005108416342</v>
       </c>
       <c r="D3" t="n">
-        <v>312.4589609973729</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E3" t="n">
-        <v>312.4589609973729</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F3" t="n">
-        <v>312.4589609973729</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4410,49 +4410,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>911.5280682958103</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>738.1107237464792</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>535.9241291052451</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>307.7005108416342</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>307.7005108416342</v>
       </c>
       <c r="W3" t="n">
-        <v>862.8876260635219</v>
+        <v>307.7005108416342</v>
       </c>
       <c r="X3" t="n">
-        <v>862.8876260635219</v>
+        <v>307.7005108416342</v>
       </c>
       <c r="Y3" t="n">
-        <v>655.1273272985679</v>
+        <v>307.7005108416342</v>
       </c>
     </row>
     <row r="4">
@@ -4525,13 +4525,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.5825927271064</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C5" t="n">
-        <v>802.5825927271064</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D5" t="n">
-        <v>559.1338160830064</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E5" t="n">
-        <v>315.6850394389064</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F5" t="n">
-        <v>308.7395386897029</v>
+        <v>234.7731431109335</v>
       </c>
       <c r="G5" t="n">
-        <v>65.29076204560283</v>
+        <v>219.3158324895849</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>219.3158324895849</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4589,28 +4589,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.5825927271064</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>269.5723599112974</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C6" t="n">
-        <v>269.5723599112974</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D6" t="n">
-        <v>269.5723599112974</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,22 +4647,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4677,19 +4677,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W6" t="n">
-        <v>853.3994959018522</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X6" t="n">
-        <v>645.5479956963194</v>
+        <v>374.3301325010674</v>
       </c>
       <c r="Y6" t="n">
-        <v>437.7876969313655</v>
+        <v>166.5698337361135</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>559.1338160830064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>559.1338160830064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>559.1338160830064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>559.1338160830064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>487.4018176583718</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4835,19 +4835,19 @@
         <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>559.1338160830064</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>559.1338160830064</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
         <v>559.1338160830064</v>
       </c>
       <c r="X8" t="n">
-        <v>559.1338160830064</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y8" t="n">
-        <v>559.1338160830064</v>
+        <v>297.2027203719481</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,19 +4887,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4914,19 +4914,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>500.6814290152826</v>
+        <v>768.6413478676429</v>
       </c>
       <c r="W9" t="n">
-        <v>257.2326523711826</v>
+        <v>525.1925712235429</v>
       </c>
       <c r="X9" t="n">
-        <v>49.38115216564972</v>
+        <v>317.3410710180102</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="10">
@@ -4948,7 +4948,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
         <v>19.28114311021272</v>
@@ -5021,16 +5021,16 @@
         <v>1542.033413984769</v>
       </c>
       <c r="D11" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955761</v>
       </c>
       <c r="E11" t="n">
-        <v>979.7795239352603</v>
+        <v>979.7795239352602</v>
       </c>
       <c r="F11" t="n">
-        <v>659.6936497233957</v>
+        <v>659.6936497233955</v>
       </c>
       <c r="G11" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921541</v>
       </c>
       <c r="H11" t="n">
         <v>104.7631941350823</v>
@@ -5042,7 +5042,7 @@
         <v>249.2363626397091</v>
       </c>
       <c r="K11" t="n">
-        <v>636.9590170723834</v>
+        <v>636.9590170723837</v>
       </c>
       <c r="L11" t="n">
         <v>1170.239882220686</v>
@@ -5051,7 +5051,7 @@
         <v>1780.224142393352</v>
       </c>
       <c r="N11" t="n">
-        <v>2385.446588068709</v>
+        <v>2385.446588068708</v>
       </c>
       <c r="O11" t="n">
         <v>2911.753343601287</v>
@@ -5075,16 +5075,16 @@
         <v>3199.63222037342</v>
       </c>
       <c r="V11" t="n">
-        <v>2959.469363607594</v>
+        <v>2959.469363607593</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915221</v>
       </c>
       <c r="X11" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231885</v>
       </c>
       <c r="Y11" t="n">
-        <v>2115.795709833817</v>
+        <v>2115.795709833816</v>
       </c>
     </row>
     <row r="12">
@@ -5127,16 +5127,16 @@
         <v>879.8185188908888</v>
       </c>
       <c r="M12" t="n">
-        <v>1046.953878598916</v>
+        <v>1503.584044098751</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.935634574239</v>
+        <v>1884.88281579971</v>
       </c>
       <c r="O12" t="n">
-        <v>2236.615106602171</v>
+        <v>2028.638591743681</v>
       </c>
       <c r="P12" t="n">
-        <v>2647.936865240548</v>
+        <v>2439.960350382057</v>
       </c>
       <c r="Q12" t="n">
         <v>2662.220283762224</v>
@@ -5236,10 +5236,10 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W13" t="n">
-        <v>856.024757201962</v>
+        <v>856.0247572019618</v>
       </c>
       <c r="X13" t="n">
-        <v>718.9352368816875</v>
+        <v>718.9352368816874</v>
       </c>
       <c r="Y13" t="n">
         <v>589.0426883159003</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1820.095900347438</v>
+        <v>1820.095900347437</v>
       </c>
       <c r="C14" t="n">
-        <v>1542.033413984769</v>
+        <v>1542.033413984768</v>
       </c>
       <c r="D14" t="n">
         <v>1274.667745955761</v>
       </c>
       <c r="E14" t="n">
-        <v>979.7795239352602</v>
+        <v>979.7795239352597</v>
       </c>
       <c r="F14" t="n">
-        <v>659.6936497233955</v>
+        <v>659.6936497233951</v>
       </c>
       <c r="G14" t="n">
-        <v>333.3796118921541</v>
+        <v>333.3796118921537</v>
       </c>
       <c r="H14" t="n">
         <v>104.7631941350823</v>
@@ -5279,13 +5279,13 @@
         <v>249.2363626397091</v>
       </c>
       <c r="K14" t="n">
-        <v>636.9590170723841</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L14" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M14" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N14" t="n">
         <v>2385.446588068709</v>
@@ -5294,10 +5294,10 @@
         <v>2911.753343601288</v>
       </c>
       <c r="P14" t="n">
-        <v>3323.269600003672</v>
+        <v>3323.269600003673</v>
       </c>
       <c r="Q14" t="n">
-        <v>3555.079410784748</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="R14" t="n">
         <v>3555.079410784748</v>
@@ -5309,19 +5309,19 @@
         <v>3362.43399598216</v>
       </c>
       <c r="U14" t="n">
-        <v>3199.632220373421</v>
+        <v>3199.63222037342</v>
       </c>
       <c r="V14" t="n">
         <v>2959.469363607593</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.600738915222</v>
+        <v>2697.600738915221</v>
       </c>
       <c r="X14" t="n">
         <v>2415.035011231885</v>
       </c>
       <c r="Y14" t="n">
-        <v>2115.795709833817</v>
+        <v>2115.795709833816</v>
       </c>
     </row>
     <row r="15">
@@ -5343,7 +5343,7 @@
         <v>504.9449248766836</v>
       </c>
       <c r="F15" t="n">
-        <v>358.4103669035686</v>
+        <v>358.4103669035685</v>
       </c>
       <c r="G15" t="n">
         <v>220.9013999505779</v>
@@ -5358,22 +5358,22 @@
         <v>183.5040598342602</v>
       </c>
       <c r="K15" t="n">
-        <v>502.2386301474694</v>
+        <v>502.2386301474695</v>
       </c>
       <c r="L15" t="n">
-        <v>992.2209905094541</v>
+        <v>625.0890486590297</v>
       </c>
       <c r="M15" t="n">
-        <v>1615.986515717316</v>
+        <v>1248.854573866892</v>
       </c>
       <c r="N15" t="n">
-        <v>1797.419321092521</v>
+        <v>1904.836329842215</v>
       </c>
       <c r="O15" t="n">
-        <v>2028.638591743681</v>
+        <v>2048.592105786185</v>
       </c>
       <c r="P15" t="n">
-        <v>2439.960350382057</v>
+        <v>2459.913864424562</v>
       </c>
       <c r="Q15" t="n">
         <v>2662.220283762224</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>498.2942540634036</v>
+        <v>498.2942540634035</v>
       </c>
       <c r="C16" t="n">
-        <v>420.2581017132396</v>
+        <v>420.2581017132395</v>
       </c>
       <c r="D16" t="n">
-        <v>361.0414928786468</v>
+        <v>361.0414928786467</v>
       </c>
       <c r="E16" t="n">
         <v>304.0284298739966</v>
@@ -5434,19 +5434,19 @@
         <v>71.10158821569496</v>
       </c>
       <c r="J16" t="n">
-        <v>138.7485218715118</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K16" t="n">
-        <v>322.4370930476437</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L16" t="n">
-        <v>588.1068164021219</v>
+        <v>588.1068164021221</v>
       </c>
       <c r="M16" t="n">
-        <v>873.764438588511</v>
+        <v>873.7644385885117</v>
       </c>
       <c r="N16" t="n">
-        <v>1160.182765121765</v>
+        <v>1160.182765121766</v>
       </c>
       <c r="O16" t="n">
         <v>1415.521203172264</v>
@@ -5455,7 +5455,7 @@
         <v>1623.344941642819</v>
       </c>
       <c r="Q16" t="n">
-        <v>1711.205292109222</v>
+        <v>1711.205292109221</v>
       </c>
       <c r="R16" t="n">
         <v>1669.080268457736</v>
@@ -5467,19 +5467,19 @@
         <v>1416.581590016168</v>
       </c>
       <c r="U16" t="n">
-        <v>1218.326354289324</v>
+        <v>1218.326354289323</v>
       </c>
       <c r="V16" t="n">
         <v>1054.54189666118</v>
       </c>
       <c r="W16" t="n">
-        <v>856.0247572019621</v>
+        <v>856.0247572019618</v>
       </c>
       <c r="X16" t="n">
-        <v>718.9352368816877</v>
+        <v>718.9352368816874</v>
       </c>
       <c r="Y16" t="n">
-        <v>589.0426883159004</v>
+        <v>589.0426883159003</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1820.095900347438</v>
+        <v>1820.095900347437</v>
       </c>
       <c r="C17" t="n">
-        <v>1542.033413984769</v>
+        <v>1542.033413984768</v>
       </c>
       <c r="D17" t="n">
-        <v>1274.667745955761</v>
+        <v>1274.66774595576</v>
       </c>
       <c r="E17" t="n">
-        <v>979.7795239352602</v>
+        <v>979.7795239352592</v>
       </c>
       <c r="F17" t="n">
-        <v>659.6936497233955</v>
+        <v>659.6936497233946</v>
       </c>
       <c r="G17" t="n">
-        <v>333.3796118921541</v>
+        <v>333.3796118921532</v>
       </c>
       <c r="H17" t="n">
-        <v>104.7631941350824</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I17" t="n">
-        <v>71.10158821569499</v>
+        <v>71.10158821569496</v>
       </c>
       <c r="J17" t="n">
-        <v>249.2363626397108</v>
+        <v>249.2363626397091</v>
       </c>
       <c r="K17" t="n">
-        <v>636.9590170723852</v>
+        <v>636.9590170723827</v>
       </c>
       <c r="L17" t="n">
-        <v>1170.239882220688</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M17" t="n">
-        <v>1780.224142393354</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N17" t="n">
-        <v>2385.44658806871</v>
+        <v>2385.446588068708</v>
       </c>
       <c r="O17" t="n">
-        <v>2911.753343601289</v>
+        <v>2911.753343601287</v>
       </c>
       <c r="P17" t="n">
-        <v>3323.269600003673</v>
+        <v>3323.269600003672</v>
       </c>
       <c r="Q17" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.079410784748</v>
       </c>
       <c r="R17" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.079410784748</v>
       </c>
       <c r="S17" t="n">
-        <v>3486.886646926997</v>
+        <v>3486.886646926996</v>
       </c>
       <c r="T17" t="n">
         <v>3362.43399598216</v>
       </c>
       <c r="U17" t="n">
-        <v>3199.632220373421</v>
+        <v>3199.63222037342</v>
       </c>
       <c r="V17" t="n">
-        <v>2959.469363607593</v>
+        <v>2959.469363607592</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.600738915222</v>
+        <v>2697.600738915221</v>
       </c>
       <c r="X17" t="n">
-        <v>2415.035011231885</v>
+        <v>2415.035011231884</v>
       </c>
       <c r="Y17" t="n">
-        <v>2115.795709833817</v>
+        <v>2115.795709833815</v>
       </c>
     </row>
     <row r="18">
@@ -5580,7 +5580,7 @@
         <v>504.9449248766836</v>
       </c>
       <c r="F18" t="n">
-        <v>358.4103669035686</v>
+        <v>358.4103669035685</v>
       </c>
       <c r="G18" t="n">
         <v>220.9013999505779</v>
@@ -5589,28 +5589,28 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I18" t="n">
-        <v>71.10158821569499</v>
+        <v>71.10158821569496</v>
       </c>
       <c r="J18" t="n">
-        <v>71.10158821569499</v>
+        <v>183.5040598342602</v>
       </c>
       <c r="K18" t="n">
-        <v>389.8361585289042</v>
+        <v>502.2386301474695</v>
       </c>
       <c r="L18" t="n">
-        <v>879.8185188908889</v>
+        <v>625.0890486590297</v>
       </c>
       <c r="M18" t="n">
-        <v>1503.584044098751</v>
+        <v>1248.854573866892</v>
       </c>
       <c r="N18" t="n">
-        <v>2159.565800074074</v>
+        <v>1904.836329842215</v>
       </c>
       <c r="O18" t="n">
-        <v>2551.893247555709</v>
+        <v>2343.916732697218</v>
       </c>
       <c r="P18" t="n">
-        <v>2647.936865240548</v>
+        <v>2439.960350382057</v>
       </c>
       <c r="Q18" t="n">
         <v>2662.220283762224</v>
@@ -5647,49 +5647,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>498.2942540634037</v>
+        <v>498.2942540634035</v>
       </c>
       <c r="C19" t="n">
-        <v>420.2581017132397</v>
+        <v>420.2581017132395</v>
       </c>
       <c r="D19" t="n">
-        <v>361.0414928786469</v>
+        <v>361.0414928786467</v>
       </c>
       <c r="E19" t="n">
-        <v>304.0284298739967</v>
+        <v>304.0284298739966</v>
       </c>
       <c r="F19" t="n">
-        <v>248.0385129538293</v>
+        <v>248.0385129538292</v>
       </c>
       <c r="G19" t="n">
-        <v>170.2750506853969</v>
+        <v>170.2750506853968</v>
       </c>
       <c r="H19" t="n">
-        <v>106.41678735341</v>
+        <v>106.4167873534099</v>
       </c>
       <c r="I19" t="n">
-        <v>71.10158821569499</v>
+        <v>71.10158821569496</v>
       </c>
       <c r="J19" t="n">
-        <v>138.7485218715118</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K19" t="n">
-        <v>322.4370930476436</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L19" t="n">
-        <v>588.1068164021218</v>
+        <v>588.1068164021221</v>
       </c>
       <c r="M19" t="n">
-        <v>873.7644385885114</v>
+        <v>873.7644385885117</v>
       </c>
       <c r="N19" t="n">
-        <v>1160.182765121765</v>
+        <v>1160.182765121766</v>
       </c>
       <c r="O19" t="n">
-        <v>1415.521203172264</v>
+        <v>1415.521203172265</v>
       </c>
       <c r="P19" t="n">
-        <v>1623.344941642819</v>
+        <v>1623.34494164282</v>
       </c>
       <c r="Q19" t="n">
         <v>1711.205292109222</v>
@@ -5701,7 +5701,7 @@
         <v>1551.552796903629</v>
       </c>
       <c r="T19" t="n">
-        <v>1416.581590016167</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U19" t="n">
         <v>1218.326354289323</v>
@@ -5713,10 +5713,10 @@
         <v>856.0247572019618</v>
       </c>
       <c r="X19" t="n">
-        <v>718.9352368816875</v>
+        <v>718.9352368816874</v>
       </c>
       <c r="Y19" t="n">
-        <v>589.0426883159005</v>
+        <v>589.0426883159003</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>659.6936497233964</v>
       </c>
       <c r="G20" t="n">
-        <v>333.379611892155</v>
+        <v>333.3796118921541</v>
       </c>
       <c r="H20" t="n">
         <v>104.7631941350823</v>
@@ -5753,16 +5753,16 @@
         <v>249.2363626397092</v>
       </c>
       <c r="K20" t="n">
-        <v>636.9590170723841</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L20" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M20" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N20" t="n">
-        <v>2385.44658806871</v>
+        <v>2385.446588068709</v>
       </c>
       <c r="O20" t="n">
         <v>2911.753343601288</v>
@@ -5838,16 +5838,16 @@
         <v>992.2209905094544</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.526314340543</v>
+        <v>1615.986515717316</v>
       </c>
       <c r="N21" t="n">
-        <v>1494.959119715748</v>
+        <v>1797.419321092522</v>
       </c>
       <c r="O21" t="n">
-        <v>2028.638591743681</v>
+        <v>2331.098793120455</v>
       </c>
       <c r="P21" t="n">
-        <v>2439.960350382057</v>
+        <v>2647.936865240548</v>
       </c>
       <c r="Q21" t="n">
         <v>2662.220283762224</v>
@@ -5908,22 +5908,22 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J22" t="n">
-        <v>138.748521871511</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K22" t="n">
-        <v>322.4370930476429</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L22" t="n">
-        <v>588.1068164021212</v>
+        <v>588.1068164021221</v>
       </c>
       <c r="M22" t="n">
-        <v>873.7644385885108</v>
+        <v>873.7644385885117</v>
       </c>
       <c r="N22" t="n">
-        <v>1160.182765121765</v>
+        <v>1160.182765121766</v>
       </c>
       <c r="O22" t="n">
-        <v>1415.521203172264</v>
+        <v>1415.521203172265</v>
       </c>
       <c r="P22" t="n">
         <v>1623.344941642819</v>
@@ -5972,28 +5972,28 @@
         <v>1274.667745955762</v>
       </c>
       <c r="E23" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352608</v>
       </c>
       <c r="F23" t="n">
-        <v>659.6936497233955</v>
+        <v>659.693649723396</v>
       </c>
       <c r="G23" t="n">
-        <v>333.3796118921541</v>
+        <v>333.3796118921546</v>
       </c>
       <c r="H23" t="n">
-        <v>104.7631941350823</v>
+        <v>104.7631941350828</v>
       </c>
       <c r="I23" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J23" t="n">
         <v>249.2363626397091</v>
       </c>
       <c r="K23" t="n">
-        <v>636.9590170723841</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L23" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M23" t="n">
         <v>1780.224142393353</v>
@@ -6017,7 +6017,7 @@
         <v>3486.886646926997</v>
       </c>
       <c r="T23" t="n">
-        <v>3362.43399598216</v>
+        <v>3362.433995982161</v>
       </c>
       <c r="U23" t="n">
         <v>3199.632220373422</v>
@@ -6063,19 +6063,19 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I24" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J24" t="n">
-        <v>183.5040598342602</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="K24" t="n">
-        <v>502.2386301474694</v>
+        <v>128.0155738864514</v>
       </c>
       <c r="L24" t="n">
-        <v>992.2209905094542</v>
+        <v>617.9979342484362</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.526314340543</v>
+        <v>838.9773637404248</v>
       </c>
       <c r="N24" t="n">
         <v>1494.959119715748</v>
@@ -6142,7 +6142,7 @@
         <v>106.41678735341</v>
       </c>
       <c r="I25" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J25" t="n">
         <v>138.7485218715119</v>
@@ -6151,7 +6151,7 @@
         <v>322.4370930476438</v>
       </c>
       <c r="L25" t="n">
-        <v>588.106816402122</v>
+        <v>588.1068164021221</v>
       </c>
       <c r="M25" t="n">
         <v>873.7644385885117</v>
@@ -6215,16 +6215,16 @@
         <v>659.6936497233959</v>
       </c>
       <c r="G26" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921544</v>
       </c>
       <c r="H26" t="n">
-        <v>104.7631941350824</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I26" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J26" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397093</v>
       </c>
       <c r="K26" t="n">
         <v>636.9590170723841</v>
@@ -6254,16 +6254,16 @@
         <v>3486.886646926997</v>
       </c>
       <c r="T26" t="n">
-        <v>3362.43399598216</v>
+        <v>3362.433995982161</v>
       </c>
       <c r="U26" t="n">
-        <v>3199.632220373421</v>
+        <v>3199.632220373422</v>
       </c>
       <c r="V26" t="n">
         <v>2959.469363607594</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.600738915222</v>
+        <v>2697.600738915223</v>
       </c>
       <c r="X26" t="n">
         <v>2415.035011231886</v>
@@ -6300,19 +6300,19 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I27" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J27" t="n">
-        <v>183.5040598342602</v>
+        <v>183.5040598342603</v>
       </c>
       <c r="K27" t="n">
-        <v>502.2386301474694</v>
+        <v>240.4180455050167</v>
       </c>
       <c r="L27" t="n">
-        <v>992.2209905094542</v>
+        <v>730.4004058670015</v>
       </c>
       <c r="M27" t="n">
-        <v>1154.938502604816</v>
+        <v>893.1179179623637</v>
       </c>
       <c r="N27" t="n">
         <v>1494.959119715748</v>
@@ -6367,13 +6367,13 @@
         <v>361.041492878647</v>
       </c>
       <c r="E28" t="n">
-        <v>304.0284298739967</v>
+        <v>304.0284298739968</v>
       </c>
       <c r="F28" t="n">
         <v>248.0385129538293</v>
       </c>
       <c r="G28" t="n">
-        <v>170.2750506853968</v>
+        <v>170.2750506853969</v>
       </c>
       <c r="H28" t="n">
         <v>106.41678735341</v>
@@ -6382,25 +6382,25 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J28" t="n">
-        <v>138.7485218715118</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K28" t="n">
-        <v>322.4370930476437</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L28" t="n">
-        <v>588.1068164021219</v>
+        <v>588.106816402122</v>
       </c>
       <c r="M28" t="n">
-        <v>873.7644385885113</v>
+        <v>873.7644385885117</v>
       </c>
       <c r="N28" t="n">
-        <v>1160.182765121765</v>
+        <v>1160.182765121766</v>
       </c>
       <c r="O28" t="n">
-        <v>1415.521203172264</v>
+        <v>1415.521203172265</v>
       </c>
       <c r="P28" t="n">
-        <v>1623.344941642819</v>
+        <v>1623.34494164282</v>
       </c>
       <c r="Q28" t="n">
         <v>1711.205292109222</v>
@@ -6421,10 +6421,10 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W28" t="n">
-        <v>856.0247572019621</v>
+        <v>856.0247572019624</v>
       </c>
       <c r="X28" t="n">
-        <v>718.9352368816875</v>
+        <v>718.935236881688</v>
       </c>
       <c r="Y28" t="n">
         <v>589.0426883159006</v>
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1820.095900347437</v>
+        <v>1820.095900347438</v>
       </c>
       <c r="C29" t="n">
-        <v>1542.033413984768</v>
+        <v>1542.03341398477</v>
       </c>
       <c r="D29" t="n">
-        <v>1274.667745955761</v>
+        <v>1274.667745955762</v>
       </c>
       <c r="E29" t="n">
-        <v>979.7795239352597</v>
+        <v>979.7795239352608</v>
       </c>
       <c r="F29" t="n">
-        <v>659.6936497233951</v>
+        <v>659.6936497233962</v>
       </c>
       <c r="G29" t="n">
-        <v>333.3796118921537</v>
+        <v>333.3796118921548</v>
       </c>
       <c r="H29" t="n">
         <v>104.7631941350823</v>
       </c>
       <c r="I29" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J29" t="n">
         <v>249.2363626397091</v>
       </c>
       <c r="K29" t="n">
-        <v>636.9590170723841</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L29" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M29" t="n">
         <v>1780.224142393353</v>
       </c>
       <c r="N29" t="n">
-        <v>2385.44658806871</v>
+        <v>2385.446588068709</v>
       </c>
       <c r="O29" t="n">
         <v>2911.753343601288</v>
@@ -6494,19 +6494,19 @@
         <v>3362.43399598216</v>
       </c>
       <c r="U29" t="n">
-        <v>3199.632220373421</v>
+        <v>3199.632220373422</v>
       </c>
       <c r="V29" t="n">
-        <v>2959.469363607593</v>
+        <v>2959.469363607594</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.600738915222</v>
+        <v>2697.600738915223</v>
       </c>
       <c r="X29" t="n">
-        <v>2415.035011231885</v>
+        <v>2415.035011231886</v>
       </c>
       <c r="Y29" t="n">
-        <v>2115.795709833816</v>
+        <v>2115.795709833817</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6537,22 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I30" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J30" t="n">
-        <v>183.5040598342602</v>
+        <v>183.5040598342603</v>
       </c>
       <c r="K30" t="n">
-        <v>482.2851161049648</v>
+        <v>502.2386301474696</v>
       </c>
       <c r="L30" t="n">
-        <v>605.135534616525</v>
+        <v>992.2209905094544</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.901059824387</v>
+        <v>1313.526314340543</v>
       </c>
       <c r="N30" t="n">
-        <v>1884.88281579971</v>
+        <v>1494.959119715748</v>
       </c>
       <c r="O30" t="n">
         <v>2028.638591743681</v>
@@ -6595,58 +6595,58 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>498.2942540634039</v>
+        <v>498.2942540634035</v>
       </c>
       <c r="C31" t="n">
-        <v>420.2581017132399</v>
+        <v>420.2581017132395</v>
       </c>
       <c r="D31" t="n">
-        <v>361.041492878647</v>
+        <v>361.0414928786466</v>
       </c>
       <c r="E31" t="n">
-        <v>304.0284298739969</v>
+        <v>304.0284298739965</v>
       </c>
       <c r="F31" t="n">
-        <v>248.0385129538294</v>
+        <v>248.038512953829</v>
       </c>
       <c r="G31" t="n">
-        <v>170.275050685397</v>
+        <v>170.2750506853966</v>
       </c>
       <c r="H31" t="n">
-        <v>106.41678735341</v>
+        <v>106.4167873534097</v>
       </c>
       <c r="I31" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J31" t="n">
-        <v>138.7485218715119</v>
+        <v>138.7485218715118</v>
       </c>
       <c r="K31" t="n">
-        <v>322.4370930476439</v>
+        <v>322.4370930476437</v>
       </c>
       <c r="L31" t="n">
-        <v>588.1068164021224</v>
+        <v>588.1068164021219</v>
       </c>
       <c r="M31" t="n">
-        <v>873.7644385885118</v>
+        <v>873.7644385885113</v>
       </c>
       <c r="N31" t="n">
-        <v>1160.182765121766</v>
+        <v>1160.182765121765</v>
       </c>
       <c r="O31" t="n">
-        <v>1415.521203172265</v>
+        <v>1415.521203172264</v>
       </c>
       <c r="P31" t="n">
-        <v>1623.34494164282</v>
+        <v>1623.344941642819</v>
       </c>
       <c r="Q31" t="n">
         <v>1711.205292109222</v>
       </c>
       <c r="R31" t="n">
-        <v>1669.080268457737</v>
+        <v>1669.080268457736</v>
       </c>
       <c r="S31" t="n">
-        <v>1551.55279690363</v>
+        <v>1551.552796903629</v>
       </c>
       <c r="T31" t="n">
         <v>1416.581590016168</v>
@@ -6658,13 +6658,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W31" t="n">
-        <v>856.0247572019623</v>
+        <v>856.0247572019618</v>
       </c>
       <c r="X31" t="n">
-        <v>718.935236881688</v>
+        <v>718.9352368816874</v>
       </c>
       <c r="Y31" t="n">
-        <v>589.0426883159006</v>
+        <v>589.0426883159003</v>
       </c>
     </row>
     <row r="32">
@@ -6680,10 +6680,10 @@
         <v>1542.033413984769</v>
       </c>
       <c r="D32" t="n">
-        <v>1274.667745955761</v>
+        <v>1274.667745955762</v>
       </c>
       <c r="E32" t="n">
-        <v>979.7795239352602</v>
+        <v>979.7795239352606</v>
       </c>
       <c r="F32" t="n">
         <v>659.6936497233955</v>
@@ -6695,7 +6695,7 @@
         <v>104.7631941350823</v>
       </c>
       <c r="I32" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J32" t="n">
         <v>249.2363626397092</v>
@@ -6704,7 +6704,7 @@
         <v>636.9590170723836</v>
       </c>
       <c r="L32" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M32" t="n">
         <v>1780.224142393353</v>
@@ -6728,19 +6728,19 @@
         <v>3486.886646926997</v>
       </c>
       <c r="T32" t="n">
-        <v>3362.43399598216</v>
+        <v>3362.433995982161</v>
       </c>
       <c r="U32" t="n">
         <v>3199.632220373421</v>
       </c>
       <c r="V32" t="n">
-        <v>2959.469363607593</v>
+        <v>2959.469363607594</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.600738915222</v>
+        <v>2697.600738915223</v>
       </c>
       <c r="X32" t="n">
-        <v>2415.035011231885</v>
+        <v>2415.035011231886</v>
       </c>
       <c r="Y32" t="n">
         <v>2115.795709833817</v>
@@ -6774,22 +6774,22 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I33" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J33" t="n">
-        <v>183.5040598342602</v>
+        <v>183.5040598342603</v>
       </c>
       <c r="K33" t="n">
-        <v>482.2851161049648</v>
+        <v>502.2386301474696</v>
       </c>
       <c r="L33" t="n">
-        <v>605.135534616525</v>
+        <v>625.0890486590298</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.901059824387</v>
+        <v>838.9773637404248</v>
       </c>
       <c r="N33" t="n">
-        <v>1884.88281579971</v>
+        <v>1494.959119715748</v>
       </c>
       <c r="O33" t="n">
         <v>2028.638591743681</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>498.2942540634035</v>
+        <v>498.2942540634037</v>
       </c>
       <c r="C34" t="n">
-        <v>420.2581017132395</v>
+        <v>420.2581017132397</v>
       </c>
       <c r="D34" t="n">
-        <v>361.0414928786467</v>
+        <v>361.0414928786469</v>
       </c>
       <c r="E34" t="n">
-        <v>304.0284298739966</v>
+        <v>304.0284298739967</v>
       </c>
       <c r="F34" t="n">
-        <v>248.0385129538292</v>
+        <v>248.0385129538293</v>
       </c>
       <c r="G34" t="n">
         <v>170.2750506853968</v>
@@ -6853,7 +6853,7 @@
         <v>106.41678735341</v>
       </c>
       <c r="I34" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J34" t="n">
         <v>138.7485218715119</v>
@@ -6865,43 +6865,43 @@
         <v>588.106816402122</v>
       </c>
       <c r="M34" t="n">
-        <v>873.7644385885117</v>
+        <v>873.7644385885112</v>
       </c>
       <c r="N34" t="n">
-        <v>1160.182765121766</v>
+        <v>1160.182765121765</v>
       </c>
       <c r="O34" t="n">
         <v>1415.521203172265</v>
       </c>
       <c r="P34" t="n">
-        <v>1623.344941642818</v>
+        <v>1623.344941642819</v>
       </c>
       <c r="Q34" t="n">
-        <v>1711.205292109221</v>
+        <v>1711.205292109222</v>
       </c>
       <c r="R34" t="n">
-        <v>1669.080268457735</v>
+        <v>1669.080268457736</v>
       </c>
       <c r="S34" t="n">
         <v>1551.552796903629</v>
       </c>
       <c r="T34" t="n">
-        <v>1416.581590016167</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U34" t="n">
-        <v>1218.326354289323</v>
+        <v>1218.326354289324</v>
       </c>
       <c r="V34" t="n">
-        <v>1054.541896661179</v>
+        <v>1054.54189666118</v>
       </c>
       <c r="W34" t="n">
-        <v>856.0247572019617</v>
+        <v>856.0247572019621</v>
       </c>
       <c r="X34" t="n">
-        <v>718.9352368816874</v>
+        <v>718.9352368816876</v>
       </c>
       <c r="Y34" t="n">
-        <v>589.0426883159003</v>
+        <v>589.0426883159005</v>
       </c>
     </row>
     <row r="35">
@@ -6920,46 +6920,46 @@
         <v>1274.667745955762</v>
       </c>
       <c r="E35" t="n">
-        <v>979.7795239352603</v>
+        <v>979.7795239352604</v>
       </c>
       <c r="F35" t="n">
-        <v>659.6936497233957</v>
+        <v>659.6936497233958</v>
       </c>
       <c r="G35" t="n">
         <v>333.3796118921542</v>
       </c>
       <c r="H35" t="n">
-        <v>104.7631941350823</v>
+        <v>104.7631941350824</v>
       </c>
       <c r="I35" t="n">
-        <v>71.10158821569496</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J35" t="n">
         <v>249.2363626397091</v>
       </c>
       <c r="K35" t="n">
-        <v>636.9590170723836</v>
+        <v>636.9590170723841</v>
       </c>
       <c r="L35" t="n">
         <v>1170.239882220686</v>
       </c>
       <c r="M35" t="n">
-        <v>1780.224142393352</v>
+        <v>1780.224142393353</v>
       </c>
       <c r="N35" t="n">
         <v>2385.446588068709</v>
       </c>
       <c r="O35" t="n">
-        <v>2911.753343601287</v>
+        <v>2911.753343601288</v>
       </c>
       <c r="P35" t="n">
-        <v>3323.269600003672</v>
+        <v>3323.269600003673</v>
       </c>
       <c r="Q35" t="n">
-        <v>3555.079410784748</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="R35" t="n">
-        <v>3555.079410784748</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="S35" t="n">
         <v>3486.886646926997</v>
@@ -6974,10 +6974,10 @@
         <v>2959.469363607594</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915224</v>
       </c>
       <c r="X35" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231887</v>
       </c>
       <c r="Y35" t="n">
         <v>2115.795709833817</v>
@@ -7002,7 +7002,7 @@
         <v>504.9449248766836</v>
       </c>
       <c r="F36" t="n">
-        <v>358.4103669035685</v>
+        <v>358.4103669035686</v>
       </c>
       <c r="G36" t="n">
         <v>220.9013999505779</v>
@@ -7011,22 +7011,22 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I36" t="n">
-        <v>71.10158821569496</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J36" t="n">
-        <v>183.5040598342602</v>
+        <v>183.5040598342603</v>
       </c>
       <c r="K36" t="n">
-        <v>502.2386301474694</v>
+        <v>502.2386301474696</v>
       </c>
       <c r="L36" t="n">
-        <v>992.2209905094542</v>
+        <v>992.2209905094544</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.526314340543</v>
+        <v>1154.938502604817</v>
       </c>
       <c r="N36" t="n">
-        <v>1494.959119715748</v>
+        <v>1810.92025858014</v>
       </c>
       <c r="O36" t="n">
         <v>2028.638591743681</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>498.2942540634036</v>
+        <v>498.2942540634039</v>
       </c>
       <c r="C37" t="n">
-        <v>420.2581017132396</v>
+        <v>420.2581017132399</v>
       </c>
       <c r="D37" t="n">
-        <v>361.0414928786469</v>
+        <v>361.0414928786471</v>
       </c>
       <c r="E37" t="n">
-        <v>304.0284298739967</v>
+        <v>304.0284298739969</v>
       </c>
       <c r="F37" t="n">
-        <v>248.0385129538292</v>
+        <v>248.0385129538294</v>
       </c>
       <c r="G37" t="n">
-        <v>170.2750506853968</v>
+        <v>170.275050685397</v>
       </c>
       <c r="H37" t="n">
         <v>106.41678735341</v>
       </c>
       <c r="I37" t="n">
-        <v>71.10158821569496</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J37" t="n">
-        <v>138.7485218715118</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K37" t="n">
-        <v>322.4370930476437</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L37" t="n">
-        <v>588.1068164021219</v>
+        <v>588.106816402122</v>
       </c>
       <c r="M37" t="n">
-        <v>873.7644385885112</v>
+        <v>873.7644385885117</v>
       </c>
       <c r="N37" t="n">
-        <v>1160.182765121765</v>
+        <v>1160.182765121766</v>
       </c>
       <c r="O37" t="n">
-        <v>1415.521203172264</v>
+        <v>1415.521203172265</v>
       </c>
       <c r="P37" t="n">
-        <v>1623.344941642819</v>
+        <v>1623.34494164282</v>
       </c>
       <c r="Q37" t="n">
         <v>1711.205292109222</v>
@@ -7132,13 +7132,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W37" t="n">
-        <v>856.0247572019621</v>
+        <v>856.0247572019624</v>
       </c>
       <c r="X37" t="n">
-        <v>718.9352368816876</v>
+        <v>718.935236881688</v>
       </c>
       <c r="Y37" t="n">
-        <v>589.0426883159004</v>
+        <v>589.0426883159007</v>
       </c>
     </row>
     <row r="38">
@@ -7157,22 +7157,22 @@
         <v>1274.667745955762</v>
       </c>
       <c r="E38" t="n">
-        <v>979.7795239352603</v>
+        <v>979.7795239352604</v>
       </c>
       <c r="F38" t="n">
-        <v>659.6936497233957</v>
+        <v>659.6936497233958</v>
       </c>
       <c r="G38" t="n">
         <v>333.3796118921542</v>
       </c>
       <c r="H38" t="n">
-        <v>104.7631941350823</v>
+        <v>104.7631941350824</v>
       </c>
       <c r="I38" t="n">
-        <v>71.10158821569496</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J38" t="n">
-        <v>249.2363626397092</v>
+        <v>249.2363626397091</v>
       </c>
       <c r="K38" t="n">
         <v>636.9590170723836</v>
@@ -7181,19 +7181,19 @@
         <v>1170.239882220686</v>
       </c>
       <c r="M38" t="n">
-        <v>1780.224142393352</v>
+        <v>1780.224142393353</v>
       </c>
       <c r="N38" t="n">
-        <v>2385.446588068708</v>
+        <v>2385.446588068709</v>
       </c>
       <c r="O38" t="n">
-        <v>2911.753343601287</v>
+        <v>2911.753343601288</v>
       </c>
       <c r="P38" t="n">
-        <v>3323.269600003672</v>
+        <v>3323.269600003673</v>
       </c>
       <c r="Q38" t="n">
-        <v>3555.079410784748</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="R38" t="n">
         <v>3555.079410784749</v>
@@ -7202,7 +7202,7 @@
         <v>3486.886646926997</v>
       </c>
       <c r="T38" t="n">
-        <v>3362.433995982161</v>
+        <v>3362.43399598216</v>
       </c>
       <c r="U38" t="n">
         <v>3199.632220373422</v>
@@ -7211,10 +7211,10 @@
         <v>2959.469363607594</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915224</v>
       </c>
       <c r="X38" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231887</v>
       </c>
       <c r="Y38" t="n">
         <v>2115.795709833817</v>
@@ -7239,7 +7239,7 @@
         <v>504.9449248766836</v>
       </c>
       <c r="F39" t="n">
-        <v>358.4103669035685</v>
+        <v>358.4103669035686</v>
       </c>
       <c r="G39" t="n">
         <v>220.9013999505779</v>
@@ -7248,25 +7248,25 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I39" t="n">
-        <v>71.10158821569496</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J39" t="n">
-        <v>183.5040598342602</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="K39" t="n">
-        <v>502.2386301474694</v>
+        <v>389.8361585289043</v>
       </c>
       <c r="L39" t="n">
-        <v>992.2209905094542</v>
+        <v>879.8185188908891</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.526314340543</v>
+        <v>1503.584044098751</v>
       </c>
       <c r="N39" t="n">
-        <v>1494.959119715748</v>
+        <v>2159.565800074075</v>
       </c>
       <c r="O39" t="n">
-        <v>2028.638591743681</v>
+        <v>2343.916732697218</v>
       </c>
       <c r="P39" t="n">
         <v>2439.960350382057</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>498.2942540634039</v>
+        <v>498.2942540634038</v>
       </c>
       <c r="C40" t="n">
-        <v>420.2581017132399</v>
+        <v>420.2581017132398</v>
       </c>
       <c r="D40" t="n">
-        <v>361.0414928786471</v>
+        <v>361.041492878647</v>
       </c>
       <c r="E40" t="n">
-        <v>304.0284298739969</v>
+        <v>304.0284298739968</v>
       </c>
       <c r="F40" t="n">
-        <v>248.0385129538295</v>
+        <v>248.0385129538293</v>
       </c>
       <c r="G40" t="n">
-        <v>170.2750506853968</v>
+        <v>170.2750506853969</v>
       </c>
       <c r="H40" t="n">
         <v>106.41678735341</v>
       </c>
       <c r="I40" t="n">
-        <v>71.10158821569496</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J40" t="n">
-        <v>138.7485218715118</v>
+        <v>138.748521871512</v>
       </c>
       <c r="K40" t="n">
-        <v>322.4370930476437</v>
+        <v>322.4370930476439</v>
       </c>
       <c r="L40" t="n">
-        <v>588.1068164021219</v>
+        <v>588.1068164021221</v>
       </c>
       <c r="M40" t="n">
-        <v>873.7644385885114</v>
+        <v>873.7644385885118</v>
       </c>
       <c r="N40" t="n">
         <v>1160.182765121766</v>
@@ -7348,16 +7348,16 @@
         <v>1415.521203172265</v>
       </c>
       <c r="P40" t="n">
-        <v>1623.344941642819</v>
+        <v>1623.34494164282</v>
       </c>
       <c r="Q40" t="n">
         <v>1711.205292109222</v>
       </c>
       <c r="R40" t="n">
-        <v>1669.080268457736</v>
+        <v>1669.080268457737</v>
       </c>
       <c r="S40" t="n">
-        <v>1551.552796903629</v>
+        <v>1551.55279690363</v>
       </c>
       <c r="T40" t="n">
         <v>1416.581590016168</v>
@@ -7372,7 +7372,7 @@
         <v>856.0247572019623</v>
       </c>
       <c r="X40" t="n">
-        <v>718.935236881688</v>
+        <v>718.9352368816878</v>
       </c>
       <c r="Y40" t="n">
         <v>589.0426883159006</v>
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1956.351273083696</v>
+        <v>1469.388992067326</v>
       </c>
       <c r="C41" t="n">
-        <v>1634.450423186014</v>
+        <v>1434.911193828598</v>
       </c>
       <c r="D41" t="n">
-        <v>1323.246391621993</v>
+        <v>1123.707162264576</v>
       </c>
       <c r="E41" t="n">
-        <v>984.5198060664775</v>
+        <v>784.9805767090608</v>
       </c>
       <c r="F41" t="n">
-        <v>620.5955683195991</v>
+        <v>421.0563389621822</v>
       </c>
       <c r="G41" t="n">
-        <v>250.4431669533439</v>
+        <v>421.0563389621822</v>
       </c>
       <c r="H41" t="n">
-        <v>71.10158821569496</v>
+        <v>148.6015576700963</v>
       </c>
       <c r="I41" t="n">
-        <v>71.10158821569496</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J41" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397092</v>
       </c>
       <c r="K41" t="n">
-        <v>636.9590170723835</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L41" t="n">
         <v>1170.239882220686</v>
@@ -7424,37 +7424,37 @@
         <v>2385.446588068709</v>
       </c>
       <c r="O41" t="n">
-        <v>2911.753343601287</v>
+        <v>2911.753343601288</v>
       </c>
       <c r="P41" t="n">
-        <v>3323.269600003672</v>
+        <v>3323.269600003673</v>
       </c>
       <c r="Q41" t="n">
-        <v>3555.079410784748</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="R41" t="n">
-        <v>3555.079410784748</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="S41" t="n">
-        <v>3555.079410784748</v>
+        <v>3443.048283391983</v>
       </c>
       <c r="T41" t="n">
-        <v>3555.079410784748</v>
+        <v>3274.757268912133</v>
       </c>
       <c r="U41" t="n">
-        <v>3555.079410784748</v>
+        <v>3068.11712976838</v>
       </c>
       <c r="V41" t="n">
-        <v>3271.078190483907</v>
+        <v>2784.115909467538</v>
       </c>
       <c r="W41" t="n">
-        <v>2965.371202256522</v>
+        <v>2478.408921240153</v>
       </c>
       <c r="X41" t="n">
-        <v>2638.967111038171</v>
+        <v>2152.004830021802</v>
       </c>
       <c r="Y41" t="n">
-        <v>2295.889446105089</v>
+        <v>1808.927165088719</v>
       </c>
     </row>
     <row r="42">
@@ -7476,7 +7476,7 @@
         <v>504.9449248766836</v>
       </c>
       <c r="F42" t="n">
-        <v>358.4103669035685</v>
+        <v>358.4103669035686</v>
       </c>
       <c r="G42" t="n">
         <v>220.9013999505779</v>
@@ -7485,22 +7485,22 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I42" t="n">
-        <v>71.10158821569496</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J42" t="n">
-        <v>183.5040598342602</v>
+        <v>183.5040598342603</v>
       </c>
       <c r="K42" t="n">
-        <v>502.2386301474694</v>
+        <v>502.2386301474696</v>
       </c>
       <c r="L42" t="n">
-        <v>992.2209905094542</v>
+        <v>992.2209905094544</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.526314340543</v>
+        <v>1615.986515717316</v>
       </c>
       <c r="N42" t="n">
-        <v>1494.959119715748</v>
+        <v>1797.419321092522</v>
       </c>
       <c r="O42" t="n">
         <v>2028.638591743681</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.10158821569496</v>
+        <v>154.3022385177524</v>
       </c>
       <c r="C43" t="n">
-        <v>71.10158821569496</v>
+        <v>154.3022385177524</v>
       </c>
       <c r="D43" t="n">
-        <v>71.10158821569496</v>
+        <v>150.255150888424</v>
       </c>
       <c r="E43" t="n">
-        <v>71.10158821569496</v>
+        <v>150.255150888424</v>
       </c>
       <c r="F43" t="n">
-        <v>71.10158821569496</v>
+        <v>150.255150888424</v>
       </c>
       <c r="G43" t="n">
-        <v>71.10158821569496</v>
+        <v>150.255150888424</v>
       </c>
       <c r="H43" t="n">
-        <v>71.10158821569496</v>
+        <v>150.255150888424</v>
       </c>
       <c r="I43" t="n">
-        <v>71.10158821569496</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J43" t="n">
-        <v>95.78254177084487</v>
+        <v>95.78254177084466</v>
       </c>
       <c r="K43" t="n">
-        <v>236.5051328463098</v>
+        <v>236.5051328463094</v>
       </c>
       <c r="L43" t="n">
-        <v>459.2088761001211</v>
+        <v>459.2088761001204</v>
       </c>
       <c r="M43" t="n">
-        <v>701.9005181858437</v>
+        <v>701.9005181858428</v>
       </c>
       <c r="N43" t="n">
-        <v>945.3528646184309</v>
+        <v>945.3528646184297</v>
       </c>
       <c r="O43" t="n">
-        <v>1157.725322568263</v>
+        <v>1157.725322568262</v>
       </c>
       <c r="P43" t="n">
-        <v>1322.583080938151</v>
+        <v>1322.583080938149</v>
       </c>
       <c r="Q43" t="n">
-        <v>1367.477451303886</v>
+        <v>1367.477451303885</v>
       </c>
       <c r="R43" t="n">
-        <v>1367.477451303886</v>
+        <v>1367.477451303885</v>
       </c>
       <c r="S43" t="n">
-        <v>1206.111616214766</v>
+        <v>1206.111616214764</v>
       </c>
       <c r="T43" t="n">
-        <v>1027.302045792291</v>
+        <v>1027.302045792288</v>
       </c>
       <c r="U43" t="n">
-        <v>785.2084465304331</v>
+        <v>785.2084465304304</v>
       </c>
       <c r="V43" t="n">
-        <v>577.5856253672754</v>
+        <v>577.5856253672724</v>
       </c>
       <c r="W43" t="n">
-        <v>335.230122373044</v>
+        <v>335.2301223730408</v>
       </c>
       <c r="X43" t="n">
-        <v>154.3022385177558</v>
+        <v>154.3022385177524</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.10158821569496</v>
+        <v>154.3022385177524</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2049.464475638133</v>
+        <v>1775.095980294712</v>
       </c>
       <c r="C44" t="n">
-        <v>1727.563625740451</v>
+        <v>1453.195130397029</v>
       </c>
       <c r="D44" t="n">
-        <v>1416.359594176429</v>
+        <v>1141.991098833007</v>
       </c>
       <c r="E44" t="n">
-        <v>1077.633008620914</v>
+        <v>1077.633008620915</v>
       </c>
       <c r="F44" t="n">
-        <v>713.7087708740357</v>
+        <v>713.7087708740363</v>
       </c>
       <c r="G44" t="n">
-        <v>343.5563695077806</v>
+        <v>343.5563695077808</v>
       </c>
       <c r="H44" t="n">
-        <v>71.10158821569496</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="I44" t="n">
-        <v>71.10158821569496</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J44" t="n">
-        <v>249.2363626397087</v>
+        <v>249.2363626397092</v>
       </c>
       <c r="K44" t="n">
-        <v>636.9590170723832</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L44" t="n">
         <v>1170.239882220686</v>
@@ -7658,40 +7658,40 @@
         <v>1780.224142393352</v>
       </c>
       <c r="N44" t="n">
-        <v>2385.446588068708</v>
+        <v>2385.446588068709</v>
       </c>
       <c r="O44" t="n">
-        <v>2911.753343601287</v>
+        <v>2911.753343601288</v>
       </c>
       <c r="P44" t="n">
-        <v>3323.269600003672</v>
+        <v>3323.269600003673</v>
       </c>
       <c r="Q44" t="n">
-        <v>3555.079410784748</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="R44" t="n">
-        <v>3555.079410784748</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="S44" t="n">
-        <v>3555.079410784748</v>
+        <v>3443.048283391983</v>
       </c>
       <c r="T44" t="n">
-        <v>3555.079410784748</v>
+        <v>3274.757268912133</v>
       </c>
       <c r="U44" t="n">
-        <v>3555.079410784748</v>
+        <v>3068.11712976838</v>
       </c>
       <c r="V44" t="n">
-        <v>3364.191393038344</v>
+        <v>2784.115909467538</v>
       </c>
       <c r="W44" t="n">
-        <v>3058.484404810959</v>
+        <v>2784.115909467538</v>
       </c>
       <c r="X44" t="n">
-        <v>2732.080313592608</v>
+        <v>2457.711818249187</v>
       </c>
       <c r="Y44" t="n">
-        <v>2389.002648659526</v>
+        <v>2114.634153316104</v>
       </c>
     </row>
     <row r="45">
@@ -7713,7 +7713,7 @@
         <v>504.9449248766836</v>
       </c>
       <c r="F45" t="n">
-        <v>358.4103669035685</v>
+        <v>358.4103669035686</v>
       </c>
       <c r="G45" t="n">
         <v>220.9013999505779</v>
@@ -7722,25 +7722,25 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I45" t="n">
-        <v>71.10158821569496</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J45" t="n">
-        <v>71.10158821569496</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="K45" t="n">
-        <v>389.8361585289041</v>
+        <v>128.0155738864514</v>
       </c>
       <c r="L45" t="n">
-        <v>512.6865770404643</v>
+        <v>530.4899794861005</v>
       </c>
       <c r="M45" t="n">
-        <v>1136.452102248326</v>
+        <v>1154.255504693963</v>
       </c>
       <c r="N45" t="n">
-        <v>1792.43385822365</v>
+        <v>1810.237260669286</v>
       </c>
       <c r="O45" t="n">
-        <v>2326.113330251582</v>
+        <v>2343.916732697218</v>
       </c>
       <c r="P45" t="n">
         <v>2439.960350382057</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.10158821569496</v>
+        <v>805.1627988085015</v>
       </c>
       <c r="C46" t="n">
-        <v>71.10158821569496</v>
+        <v>683.2882829233235</v>
       </c>
       <c r="D46" t="n">
-        <v>71.10158821569496</v>
+        <v>580.2333105537168</v>
       </c>
       <c r="E46" t="n">
-        <v>71.10158821569496</v>
+        <v>479.3818840140527</v>
       </c>
       <c r="F46" t="n">
-        <v>71.10158821569496</v>
+        <v>379.5536035588713</v>
       </c>
       <c r="G46" t="n">
-        <v>71.10158821569496</v>
+        <v>257.9517777554248</v>
       </c>
       <c r="H46" t="n">
-        <v>71.10158821569496</v>
+        <v>150.255150888424</v>
       </c>
       <c r="I46" t="n">
-        <v>71.10158821569496</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J46" t="n">
-        <v>95.78254177084484</v>
+        <v>95.78254177084466</v>
       </c>
       <c r="K46" t="n">
-        <v>236.5051328463097</v>
+        <v>236.5051328463094</v>
       </c>
       <c r="L46" t="n">
-        <v>459.208876100121</v>
+        <v>459.2088761001204</v>
       </c>
       <c r="M46" t="n">
-        <v>701.9005181858436</v>
+        <v>701.9005181858428</v>
       </c>
       <c r="N46" t="n">
-        <v>945.3528646184307</v>
+        <v>945.3528646184297</v>
       </c>
       <c r="O46" t="n">
-        <v>1157.725322568263</v>
+        <v>1157.725322568262</v>
       </c>
       <c r="P46" t="n">
-        <v>1322.58308093815</v>
+        <v>1322.583080938149</v>
       </c>
       <c r="Q46" t="n">
-        <v>1367.477451303886</v>
+        <v>1367.477451303885</v>
       </c>
       <c r="R46" t="n">
-        <v>1367.477451303886</v>
+        <v>1281.514064117385</v>
       </c>
       <c r="S46" t="n">
-        <v>1206.111616214765</v>
+        <v>1281.514064117385</v>
       </c>
       <c r="T46" t="n">
-        <v>1027.302045792291</v>
+        <v>1281.514064117385</v>
       </c>
       <c r="U46" t="n">
-        <v>785.2084465304326</v>
+        <v>1281.514064117385</v>
       </c>
       <c r="V46" t="n">
-        <v>577.5856253672749</v>
+        <v>1281.514064117385</v>
       </c>
       <c r="W46" t="n">
-        <v>335.2301223730435</v>
+        <v>1281.514064117385</v>
       </c>
       <c r="X46" t="n">
-        <v>154.3022385177553</v>
+        <v>1113.480508696813</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.10158821569496</v>
+        <v>939.7495965960122</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8070,13 +8070,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,22 +8535,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,19 +8775,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>4.462472336025144</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>201.884814470459</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,22 +9009,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>88.34696435069614</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>189.9222230464504</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720755</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711638</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>12.55318522064597</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9255,13 +9255,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>251.0824965026916</v>
+        <v>298.3077039505383</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,7 +9486,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>160.1897088239658</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>223.0247014497519</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,19 +9714,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>12.55318522064593</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>160.1897088239663</v>
+        <v>58.85042161275402</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>160.1897088239663</v>
+        <v>424.6549458365446</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10191,19 +10191,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>244.31017232318</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>160.1897088239658</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,19 +10428,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>244.31017232318</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>51.68767978387157</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10671,13 +10671,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>160.1897088239663</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>74.70965375714169</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>12.55318522064593</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,16 +10908,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>160.1897088239663</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>41.00520876684186</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11145,13 +11145,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>160.1897088239663</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>88.34696435069532</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714829</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>12.55318522064596</v>
+        <v>12.55318522064593</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>282.4484718061504</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11391,7 +11391,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>17.98323479357217</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -25202,7 +25202,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>284.5488211423645</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25640,13 +25640,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>366.4508773525929</v>
       </c>
       <c r="H41" t="n">
-        <v>92.18207052889227</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>76.72496975985706</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>110.910816118838</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>166.6081043350516</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>204.5737377523153</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>133.2409298096354</v>
+        <v>133.2409298096356</v>
       </c>
       <c r="C43" t="n">
-        <v>120.6557707263259</v>
+        <v>120.6557707263262</v>
       </c>
       <c r="D43" t="n">
-        <v>102.0244226459104</v>
+        <v>98.01780589287561</v>
       </c>
       <c r="E43" t="n">
-        <v>99.84291227426726</v>
+        <v>99.84291227426753</v>
       </c>
       <c r="F43" t="n">
-        <v>98.82999765062934</v>
+        <v>98.82999765062961</v>
       </c>
       <c r="G43" t="n">
-        <v>120.3858075454117</v>
+        <v>120.385807545412</v>
       </c>
       <c r="H43" t="n">
-        <v>106.6196605983306</v>
+        <v>106.6196605983308</v>
       </c>
       <c r="I43" t="n">
-        <v>78.36202704600146</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>85.1037533146345</v>
+        <v>85.10375331463476</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>89.62495918075263</v>
+        <v>171.9936029797931</v>
       </c>
     </row>
     <row r="44">
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>271.6248103899887</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>76.72496975985709</v>
+        <v>76.7249697598573</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25913,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>110.910816118838</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>166.6081043350517</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>204.5737377523154</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>92.18207052889321</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>302.6499183451114</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>133.2409298096354</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>120.655770726326</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>102.0244226459105</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>99.84291227426729</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>98.82999765062937</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>120.3858075454117</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>106.6196605983306</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>78.36202704600149</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>85.10375331463453</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>159.7521767382297</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>177.0214747182505</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>239.6726632692395</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>205.5465929515263</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>239.9319479642893</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>12.76538515036975</v>
       </c>
       <c r="Y46" t="n">
-        <v>89.62495918075314</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>697596.2274493283</v>
+        <v>697596.2274493284</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>697596.2274493285</v>
+        <v>697596.2274493284</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>697596.2274493283</v>
+        <v>697596.2274493284</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>636274.5140259652</v>
+        <v>636274.5140259649</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>636274.5140259651</v>
+        <v>636274.514025965</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.6813710696</v>
+      </c>
+      <c r="C2" t="n">
+        <v>779989.681371069</v>
+      </c>
+      <c r="D2" t="n">
         <v>779989.6813710695</v>
       </c>
-      <c r="C2" t="n">
-        <v>779989.6813710693</v>
-      </c>
-      <c r="D2" t="n">
-        <v>779989.6813710694</v>
-      </c>
       <c r="E2" t="n">
-        <v>779989.6813710704</v>
+        <v>779989.6813710706</v>
       </c>
       <c r="F2" t="n">
-        <v>779989.6813710697</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="G2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710707</v>
       </c>
       <c r="H2" t="n">
         <v>779989.6813710688</v>
@@ -26335,25 +26335,25 @@
         <v>779989.6813710701</v>
       </c>
       <c r="J2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710706</v>
       </c>
       <c r="K2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="L2" t="n">
         <v>779989.6813710703</v>
       </c>
       <c r="M2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710704</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710706</v>
       </c>
       <c r="O2" t="n">
-        <v>707170.1466808264</v>
+        <v>707170.1466808257</v>
       </c>
       <c r="P2" t="n">
-        <v>707170.1466808262</v>
+        <v>707170.1466808257</v>
       </c>
     </row>
     <row r="3">
@@ -26375,13 +26375,13 @@
         <v>717213.3002186425</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.968389824469341e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>135052.7668166786</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>37272.84029784149</v>
+        <v>37272.84029784131</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26439,7 +26439,7 @@
         <v>132680.0433448205</v>
       </c>
       <c r="J4" t="n">
-        <v>132680.0433448205</v>
+        <v>132680.0433448204</v>
       </c>
       <c r="K4" t="n">
         <v>132680.0433448205</v>
@@ -26451,13 +26451,13 @@
         <v>132680.0433448205</v>
       </c>
       <c r="N4" t="n">
-        <v>132680.0433448206</v>
+        <v>132680.0433448205</v>
       </c>
       <c r="O4" t="n">
-        <v>88822.37924613288</v>
+        <v>88822.37924613262</v>
       </c>
       <c r="P4" t="n">
-        <v>88822.37924613288</v>
+        <v>88822.37924613262</v>
       </c>
     </row>
     <row r="5">
@@ -26482,31 +26482,31 @@
         <v>73862.46925788872</v>
       </c>
       <c r="G5" t="n">
-        <v>73862.46925788873</v>
+        <v>73862.46925788872</v>
       </c>
       <c r="H5" t="n">
         <v>73862.46925788873</v>
       </c>
       <c r="I5" t="n">
-        <v>73862.46925788872</v>
+        <v>73862.46925788873</v>
       </c>
       <c r="J5" t="n">
-        <v>73862.46925788872</v>
+        <v>73862.46925788873</v>
       </c>
       <c r="K5" t="n">
-        <v>73862.46925788872</v>
+        <v>73862.46925788873</v>
       </c>
       <c r="L5" t="n">
         <v>73862.46925788873</v>
       </c>
       <c r="M5" t="n">
-        <v>73862.46925788872</v>
+        <v>73862.46925788873</v>
       </c>
       <c r="N5" t="n">
-        <v>73862.46925788872</v>
+        <v>73862.46925788873</v>
       </c>
       <c r="O5" t="n">
-        <v>70213.8763477039</v>
+        <v>70213.87634770389</v>
       </c>
       <c r="P5" t="n">
         <v>70213.87634770389</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>329976.0280854046</v>
+        <v>329976.0280854047</v>
       </c>
       <c r="C6" t="n">
-        <v>410745.4596169521</v>
+        <v>410745.4596169518</v>
       </c>
       <c r="D6" t="n">
-        <v>410745.4596169522</v>
+        <v>410745.4596169523</v>
       </c>
       <c r="E6" t="n">
-        <v>-143766.1314502812</v>
+        <v>-143766.1314502811</v>
       </c>
       <c r="F6" t="n">
-        <v>573447.1687683605</v>
+        <v>573447.1687683592</v>
       </c>
       <c r="G6" t="n">
-        <v>573447.1687683604</v>
+        <v>573447.1687683614</v>
       </c>
       <c r="H6" t="n">
-        <v>573447.1687683593</v>
+        <v>573447.1687683596</v>
       </c>
       <c r="I6" t="n">
         <v>573447.1687683609</v>
       </c>
       <c r="J6" t="n">
-        <v>438394.4019516814</v>
+        <v>438394.4019516828</v>
       </c>
       <c r="K6" t="n">
-        <v>573447.1687683604</v>
+        <v>573447.1687683603</v>
       </c>
       <c r="L6" t="n">
         <v>573447.1687683611</v>
       </c>
       <c r="M6" t="n">
-        <v>412023.8912425273</v>
+        <v>412023.8912425288</v>
       </c>
       <c r="N6" t="n">
-        <v>573447.1687683595</v>
+        <v>573447.1687683613</v>
       </c>
       <c r="O6" t="n">
-        <v>510861.0507891481</v>
+        <v>510669.4204346999</v>
       </c>
       <c r="P6" t="n">
-        <v>548133.8910869894</v>
+        <v>547942.2607325413</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="F2" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="G2" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="H2" t="n">
         <v>89.99103027196551</v>
@@ -26710,22 +26710,22 @@
         <v>89.99103027196547</v>
       </c>
       <c r="K2" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="L2" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="M2" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="N2" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="O2" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="P2" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
     </row>
     <row r="3">
@@ -26747,37 +26747,37 @@
         <v>562.3764353223246</v>
       </c>
       <c r="F3" t="n">
-        <v>562.3764353223246</v>
+        <v>562.3764353223248</v>
       </c>
       <c r="G3" t="n">
-        <v>562.3764353223246</v>
+        <v>562.3764353223248</v>
       </c>
       <c r="H3" t="n">
         <v>562.3764353223248</v>
       </c>
       <c r="I3" t="n">
-        <v>562.3764353223247</v>
+        <v>562.3764353223248</v>
       </c>
       <c r="J3" t="n">
-        <v>562.3764353223247</v>
+        <v>562.3764353223248</v>
       </c>
       <c r="K3" t="n">
-        <v>562.3764353223247</v>
+        <v>562.3764353223248</v>
       </c>
       <c r="L3" t="n">
-        <v>562.3764353223247</v>
+        <v>562.3764353223248</v>
       </c>
       <c r="M3" t="n">
-        <v>562.3764353223247</v>
+        <v>562.3764353223248</v>
       </c>
       <c r="N3" t="n">
-        <v>562.3764353223247</v>
+        <v>562.3764353223248</v>
       </c>
       <c r="O3" t="n">
-        <v>562.3764353223247</v>
+        <v>562.3764353223248</v>
       </c>
       <c r="P3" t="n">
-        <v>562.3764353223247</v>
+        <v>562.3764353223248</v>
       </c>
     </row>
     <row r="4">
@@ -26799,37 +26799,37 @@
         <v>888.7698526961869</v>
       </c>
       <c r="F4" t="n">
-        <v>888.7698526961871</v>
+        <v>888.7698526961869</v>
       </c>
       <c r="G4" t="n">
-        <v>888.7698526961873</v>
+        <v>888.7698526961869</v>
       </c>
       <c r="H4" t="n">
         <v>888.7698526961873</v>
       </c>
       <c r="I4" t="n">
-        <v>888.7698526961872</v>
+        <v>888.7698526961873</v>
       </c>
       <c r="J4" t="n">
-        <v>888.7698526961872</v>
+        <v>888.7698526961873</v>
       </c>
       <c r="K4" t="n">
-        <v>888.7698526961872</v>
+        <v>888.7698526961873</v>
       </c>
       <c r="L4" t="n">
-        <v>888.7698526961872</v>
+        <v>888.7698526961873</v>
       </c>
       <c r="M4" t="n">
-        <v>888.7698526961869</v>
+        <v>888.7698526961873</v>
       </c>
       <c r="N4" t="n">
-        <v>888.7698526961869</v>
+        <v>888.7698526961873</v>
       </c>
       <c r="O4" t="n">
-        <v>888.7698526961871</v>
+        <v>888.7698526961873</v>
       </c>
       <c r="P4" t="n">
-        <v>888.7698526961869</v>
+        <v>888.7698526961873</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26923,16 +26923,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.59105037230186</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26969,13 +26969,13 @@
         <v>562.3764353223246</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>647.7555638185277</v>
+        <v>647.7555638185279</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27160,16 +27160,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>331.7898455187701</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>284.6602775386073</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>49.47614586909151</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>48.15403780996544</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>305.8745687243435</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>24.39083643943997</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,10 +27701,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27713,7 +27713,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,16 +27749,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>142.1439001482235</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>88.8989033826382</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>95.24412853877561</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>335.8613673013232</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>367.940442779765</v>
       </c>
     </row>
     <row r="9">
@@ -27950,10 +27950,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27986,10 +27986,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>39.33893758286192</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>176.6302781386796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G10" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="C11" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="D11" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="E11" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="F11" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="G11" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="H11" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="I11" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>7.853524954954793</v>
       </c>
       <c r="S11" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="T11" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="U11" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="V11" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="W11" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="X11" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="Y11" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="C13" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="D13" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="E13" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="F13" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="G13" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="H13" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="I13" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="J13" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="K13" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="L13" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="M13" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="N13" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="O13" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="P13" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="R13" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="S13" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="T13" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="U13" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="V13" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="W13" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="X13" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="Y13" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="C14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="D14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="E14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="F14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="G14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="H14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="I14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>7.853524954954793</v>
+        <v>7.853524954953385</v>
       </c>
       <c r="S14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="T14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="U14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="V14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="W14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="X14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="Y14" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="C16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="D16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="E16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="F16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="G16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="H16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="I16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="J16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="K16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="L16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="M16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="N16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="O16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196446</v>
       </c>
       <c r="P16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="R16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="S16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="T16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="U16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="V16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="W16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="X16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="Y16" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="C17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="D17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="E17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="F17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="G17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="H17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="I17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>7.853524954954793</v>
+        <v>7.853524954954736</v>
       </c>
       <c r="S17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="T17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="U17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="V17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="W17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="X17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="Y17" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="C19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="D19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="E19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="F19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="G19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="H19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="I19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="J19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="K19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="L19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="M19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="N19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="O19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="P19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="R19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="S19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="T19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="U19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="V19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="W19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="X19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="Y19" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196551</v>
       </c>
     </row>
     <row r="20">
@@ -28980,7 +28980,7 @@
         <v>89.99103027196551</v>
       </c>
       <c r="J22" t="n">
-        <v>89.99103027196462</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="K22" t="n">
         <v>89.99103027196551</v>
@@ -28998,7 +28998,7 @@
         <v>89.99103027196551</v>
       </c>
       <c r="P22" t="n">
-        <v>89.99103027196551</v>
+        <v>89.9910302719645</v>
       </c>
       <c r="Q22" t="n">
         <v>89.99103027196551</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954736</v>
       </c>
       <c r="S23" t="n">
         <v>89.99103027196551</v>
@@ -29232,7 +29232,7 @@
         <v>89.99103027196551</v>
       </c>
       <c r="O25" t="n">
-        <v>89.99103027196449</v>
+        <v>89.99103027196446</v>
       </c>
       <c r="P25" t="n">
         <v>89.99103027196551</v>
@@ -29320,7 +29320,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954736</v>
       </c>
       <c r="S26" t="n">
         <v>89.99103027196547</v>
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C29" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D29" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E29" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F29" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G29" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H29" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I29" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29557,28 +29557,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954736</v>
       </c>
       <c r="S29" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T29" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U29" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V29" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W29" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X29" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y29" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C31" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D31" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E31" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F31" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G31" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H31" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I31" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J31" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="K31" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="L31" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="M31" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="N31" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="O31" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="P31" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Q31" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="R31" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="S31" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T31" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U31" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V31" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W31" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X31" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y31" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="C32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="D32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="E32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="F32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="G32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="H32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="I32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954736</v>
       </c>
       <c r="S32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="T32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="U32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="V32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="W32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="X32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="Y32" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="C34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="D34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="E34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="F34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="G34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="H34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="I34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="J34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="K34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="L34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="M34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196509</v>
       </c>
       <c r="N34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="O34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="P34" t="n">
-        <v>89.99103027196429</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="Q34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="R34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="S34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="T34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="U34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="V34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="W34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="X34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="Y34" t="n">
-        <v>89.99103027196553</v>
+        <v>89.99103027196549</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954736</v>
       </c>
       <c r="S35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="K37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="L37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="M37" t="n">
-        <v>89.99103027196523</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="N37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="O37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="P37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Q37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="R37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="S37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C38" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D38" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E38" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F38" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G38" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H38" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I38" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>7.853524954956115</v>
+        <v>7.853524954954736</v>
       </c>
       <c r="S38" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T38" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U38" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V38" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W38" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X38" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y38" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C40" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D40" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E40" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F40" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G40" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H40" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I40" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J40" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196563</v>
       </c>
       <c r="K40" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="L40" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="M40" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="N40" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="O40" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="P40" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Q40" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="R40" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="S40" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T40" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U40" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V40" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W40" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X40" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y40" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="C41" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="D41" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="E41" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="F41" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="G41" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="H41" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="I41" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954736</v>
       </c>
       <c r="S41" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="T41" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="U41" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="V41" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="W41" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="X41" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="C43" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="D43" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="E43" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="F43" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="G43" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="H43" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="I43" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="J43" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="K43" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="M43" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="N43" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="O43" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="P43" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="R43" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="S43" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="T43" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="U43" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="V43" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="W43" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="X43" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.5910503723019</v>
+        <v>46.59105037230164</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="C44" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="D44" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="E44" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="F44" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="G44" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="H44" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="I44" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954954736</v>
       </c>
       <c r="S44" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="T44" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="U44" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="V44" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="W44" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="X44" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="C46" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="D46" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="E46" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="F46" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="G46" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="H46" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="I46" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="J46" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="K46" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="L46" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="M46" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="N46" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="O46" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="P46" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="R46" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="S46" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="T46" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="U46" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="V46" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="W46" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="X46" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.59105037230187</v>
+        <v>46.59105037230164</v>
       </c>
     </row>
   </sheetData>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.260809790240499</v>
+        <v>2.2608097902405</v>
       </c>
       <c r="H14" t="n">
-        <v>23.15351826430052</v>
+        <v>23.15351826430053</v>
       </c>
       <c r="I14" t="n">
-        <v>87.15986943824693</v>
+        <v>87.15986943824696</v>
       </c>
       <c r="J14" t="n">
-        <v>191.8834049344247</v>
+        <v>191.8834049344248</v>
       </c>
       <c r="K14" t="n">
-        <v>287.5834833553051</v>
+        <v>287.5834833553052</v>
       </c>
       <c r="L14" t="n">
-        <v>356.7727409733779</v>
+        <v>356.772740973378</v>
       </c>
       <c r="M14" t="n">
-        <v>396.9784170805673</v>
+        <v>396.9784170805675</v>
       </c>
       <c r="N14" t="n">
-        <v>403.4019428970882</v>
+        <v>403.4019428970884</v>
       </c>
       <c r="O14" t="n">
-        <v>380.9210155453842</v>
+        <v>380.9210155453844</v>
       </c>
       <c r="P14" t="n">
-        <v>325.1072738488218</v>
+        <v>325.1072738488219</v>
       </c>
       <c r="Q14" t="n">
-        <v>244.1420232358339</v>
+        <v>244.142023235834</v>
       </c>
       <c r="R14" t="n">
         <v>142.0155929861949</v>
       </c>
       <c r="S14" t="n">
-        <v>51.51820309510543</v>
+        <v>51.51820309510545</v>
       </c>
       <c r="T14" t="n">
-        <v>9.89669485677779</v>
+        <v>9.896694856777794</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1808647832192399</v>
+        <v>0.18086478321924</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,46 +32069,46 @@
         <v>1.209639879749906</v>
       </c>
       <c r="H15" t="n">
-        <v>11.68257462811093</v>
+        <v>11.68257462811094</v>
       </c>
       <c r="I15" t="n">
-        <v>41.6476888422665</v>
+        <v>41.64768884226651</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2844414460207</v>
+        <v>114.2844414460208</v>
       </c>
       <c r="K15" t="n">
-        <v>195.3303133892644</v>
+        <v>195.3303133892645</v>
       </c>
       <c r="L15" t="n">
-        <v>262.6457116097329</v>
+        <v>262.645711609733</v>
       </c>
       <c r="M15" t="n">
-        <v>306.4951572506669</v>
+        <v>306.495157250667</v>
       </c>
       <c r="N15" t="n">
-        <v>314.607172058288</v>
+        <v>314.6071720582881</v>
       </c>
       <c r="O15" t="n">
-        <v>287.8040989333032</v>
+        <v>287.8040989333034</v>
       </c>
       <c r="P15" t="n">
-        <v>230.9881626515412</v>
+        <v>230.9881626515413</v>
       </c>
       <c r="Q15" t="n">
         <v>154.4094695624617</v>
       </c>
       <c r="R15" t="n">
-        <v>75.10378130587576</v>
+        <v>75.10378130587578</v>
       </c>
       <c r="S15" t="n">
-        <v>22.46853022254758</v>
+        <v>22.46853022254759</v>
       </c>
       <c r="T15" t="n">
-        <v>4.875697585483171</v>
+        <v>4.875697585483173</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07958157103617804</v>
+        <v>0.07958157103617808</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.014121440745175</v>
+        <v>1.014121440745176</v>
       </c>
       <c r="H16" t="n">
-        <v>9.016461536807112</v>
+        <v>9.016461536807116</v>
       </c>
       <c r="I16" t="n">
-        <v>30.49739750895492</v>
+        <v>30.49739750895493</v>
       </c>
       <c r="J16" t="n">
-        <v>71.6983858606839</v>
+        <v>71.69838586068393</v>
       </c>
       <c r="K16" t="n">
-        <v>117.8224728429394</v>
+        <v>117.8224728429395</v>
       </c>
       <c r="L16" t="n">
-        <v>150.7722003813327</v>
+        <v>150.7722003813328</v>
       </c>
       <c r="M16" t="n">
-        <v>158.9681454797187</v>
+        <v>158.9681454797188</v>
       </c>
       <c r="N16" t="n">
-        <v>155.1882382914868</v>
+        <v>155.1882382914869</v>
       </c>
       <c r="O16" t="n">
-        <v>143.3414560064181</v>
+        <v>143.3414560064182</v>
       </c>
       <c r="P16" t="n">
-        <v>122.6533786152164</v>
+        <v>122.6533786152165</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.91884173367102</v>
+        <v>84.91884173367104</v>
       </c>
       <c r="R16" t="n">
-        <v>45.59858769023305</v>
+        <v>45.59858769023307</v>
       </c>
       <c r="S16" t="n">
-        <v>17.67337092644091</v>
+        <v>17.67337092644092</v>
       </c>
       <c r="T16" t="n">
-        <v>4.333064337729384</v>
+        <v>4.333064337729386</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0553157149497369</v>
+        <v>0.05531571494973692</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.260809790240499</v>
+        <v>2.2608097902405</v>
       </c>
       <c r="H17" t="n">
-        <v>23.15351826430052</v>
+        <v>23.15351826430053</v>
       </c>
       <c r="I17" t="n">
-        <v>87.15986943824693</v>
+        <v>87.15986943824696</v>
       </c>
       <c r="J17" t="n">
-        <v>191.8834049344247</v>
+        <v>191.8834049344248</v>
       </c>
       <c r="K17" t="n">
-        <v>287.5834833553051</v>
+        <v>287.5834833553052</v>
       </c>
       <c r="L17" t="n">
-        <v>356.7727409733779</v>
+        <v>356.772740973378</v>
       </c>
       <c r="M17" t="n">
-        <v>396.9784170805673</v>
+        <v>396.9784170805675</v>
       </c>
       <c r="N17" t="n">
-        <v>403.4019428970882</v>
+        <v>403.4019428970884</v>
       </c>
       <c r="O17" t="n">
-        <v>380.9210155453842</v>
+        <v>380.9210155453844</v>
       </c>
       <c r="P17" t="n">
-        <v>325.1072738488218</v>
+        <v>325.1072738488219</v>
       </c>
       <c r="Q17" t="n">
-        <v>244.1420232358339</v>
+        <v>244.142023235834</v>
       </c>
       <c r="R17" t="n">
         <v>142.0155929861949</v>
       </c>
       <c r="S17" t="n">
-        <v>51.51820309510543</v>
+        <v>51.51820309510545</v>
       </c>
       <c r="T17" t="n">
-        <v>9.89669485677779</v>
+        <v>9.896694856777794</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1808647832192399</v>
+        <v>0.18086478321924</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,46 +32306,46 @@
         <v>1.209639879749906</v>
       </c>
       <c r="H18" t="n">
-        <v>11.68257462811093</v>
+        <v>11.68257462811094</v>
       </c>
       <c r="I18" t="n">
-        <v>41.6476888422665</v>
+        <v>41.64768884226651</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2844414460207</v>
+        <v>114.2844414460208</v>
       </c>
       <c r="K18" t="n">
-        <v>195.3303133892644</v>
+        <v>195.3303133892645</v>
       </c>
       <c r="L18" t="n">
-        <v>262.6457116097329</v>
+        <v>262.645711609733</v>
       </c>
       <c r="M18" t="n">
-        <v>306.4951572506669</v>
+        <v>306.495157250667</v>
       </c>
       <c r="N18" t="n">
-        <v>314.607172058288</v>
+        <v>314.6071720582881</v>
       </c>
       <c r="O18" t="n">
-        <v>287.8040989333032</v>
+        <v>287.8040989333034</v>
       </c>
       <c r="P18" t="n">
-        <v>230.9881626515412</v>
+        <v>230.9881626515413</v>
       </c>
       <c r="Q18" t="n">
         <v>154.4094695624617</v>
       </c>
       <c r="R18" t="n">
-        <v>75.10378130587576</v>
+        <v>75.10378130587578</v>
       </c>
       <c r="S18" t="n">
-        <v>22.46853022254758</v>
+        <v>22.46853022254759</v>
       </c>
       <c r="T18" t="n">
-        <v>4.875697585483171</v>
+        <v>4.875697585483173</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07958157103617804</v>
+        <v>0.07958157103617808</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.014121440745175</v>
+        <v>1.014121440745176</v>
       </c>
       <c r="H19" t="n">
-        <v>9.016461536807112</v>
+        <v>9.016461536807116</v>
       </c>
       <c r="I19" t="n">
-        <v>30.49739750895492</v>
+        <v>30.49739750895493</v>
       </c>
       <c r="J19" t="n">
-        <v>71.6983858606839</v>
+        <v>71.69838586068393</v>
       </c>
       <c r="K19" t="n">
-        <v>117.8224728429394</v>
+        <v>117.8224728429395</v>
       </c>
       <c r="L19" t="n">
-        <v>150.7722003813327</v>
+        <v>150.7722003813328</v>
       </c>
       <c r="M19" t="n">
-        <v>158.9681454797187</v>
+        <v>158.9681454797188</v>
       </c>
       <c r="N19" t="n">
-        <v>155.1882382914868</v>
+        <v>155.1882382914869</v>
       </c>
       <c r="O19" t="n">
-        <v>143.3414560064181</v>
+        <v>143.3414560064182</v>
       </c>
       <c r="P19" t="n">
-        <v>122.6533786152164</v>
+        <v>122.6533786152165</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.91884173367102</v>
+        <v>84.91884173367104</v>
       </c>
       <c r="R19" t="n">
-        <v>45.59858769023305</v>
+        <v>45.59858769023307</v>
       </c>
       <c r="S19" t="n">
-        <v>17.67337092644091</v>
+        <v>17.67337092644092</v>
       </c>
       <c r="T19" t="n">
-        <v>4.333064337729384</v>
+        <v>4.333064337729386</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0553157149497369</v>
+        <v>0.05531571494973692</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32701,10 +32701,10 @@
         <v>2.2608097902405</v>
       </c>
       <c r="H23" t="n">
-        <v>23.15351826430052</v>
+        <v>23.15351826430053</v>
       </c>
       <c r="I23" t="n">
-        <v>87.15986943824694</v>
+        <v>87.15986943824696</v>
       </c>
       <c r="J23" t="n">
         <v>191.8834049344248</v>
@@ -32713,34 +32713,34 @@
         <v>287.5834833553052</v>
       </c>
       <c r="L23" t="n">
-        <v>356.7727409733779</v>
+        <v>356.772740973378</v>
       </c>
       <c r="M23" t="n">
-        <v>396.9784170805674</v>
+        <v>396.9784170805675</v>
       </c>
       <c r="N23" t="n">
-        <v>403.4019428970882</v>
+        <v>403.4019428970884</v>
       </c>
       <c r="O23" t="n">
-        <v>380.9210155453843</v>
+        <v>380.9210155453844</v>
       </c>
       <c r="P23" t="n">
         <v>325.1072738488219</v>
       </c>
       <c r="Q23" t="n">
-        <v>244.1420232358339</v>
+        <v>244.142023235834</v>
       </c>
       <c r="R23" t="n">
         <v>142.0155929861949</v>
       </c>
       <c r="S23" t="n">
-        <v>51.51820309510543</v>
+        <v>51.51820309510545</v>
       </c>
       <c r="T23" t="n">
-        <v>9.896694856777792</v>
+        <v>9.896694856777794</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1808647832192399</v>
+        <v>0.18086478321924</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,25 +32783,25 @@
         <v>11.68257462811094</v>
       </c>
       <c r="I24" t="n">
-        <v>41.6476888422665</v>
+        <v>41.64768884226651</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2844414460207</v>
+        <v>114.2844414460208</v>
       </c>
       <c r="K24" t="n">
-        <v>195.3303133892644</v>
+        <v>195.3303133892645</v>
       </c>
       <c r="L24" t="n">
-        <v>262.6457116097329</v>
+        <v>262.645711609733</v>
       </c>
       <c r="M24" t="n">
-        <v>306.4951572506669</v>
+        <v>306.495157250667</v>
       </c>
       <c r="N24" t="n">
         <v>314.6071720582881</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8040989333033</v>
+        <v>287.8040989333034</v>
       </c>
       <c r="P24" t="n">
         <v>230.9881626515413</v>
@@ -32810,16 +32810,16 @@
         <v>154.4094695624617</v>
       </c>
       <c r="R24" t="n">
-        <v>75.10378130587577</v>
+        <v>75.10378130587578</v>
       </c>
       <c r="S24" t="n">
-        <v>22.46853022254758</v>
+        <v>22.46853022254759</v>
       </c>
       <c r="T24" t="n">
-        <v>4.875697585483172</v>
+        <v>4.875697585483173</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07958157103617806</v>
+        <v>0.07958157103617808</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,13 +32859,13 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H25" t="n">
-        <v>9.016461536807114</v>
+        <v>9.016461536807116</v>
       </c>
       <c r="I25" t="n">
         <v>30.49739750895493</v>
       </c>
       <c r="J25" t="n">
-        <v>71.69838586068391</v>
+        <v>71.69838586068393</v>
       </c>
       <c r="K25" t="n">
         <v>117.8224728429395</v>
@@ -32874,10 +32874,10 @@
         <v>150.7722003813328</v>
       </c>
       <c r="M25" t="n">
-        <v>158.9681454797187</v>
+        <v>158.9681454797188</v>
       </c>
       <c r="N25" t="n">
-        <v>155.1882382914868</v>
+        <v>155.1882382914869</v>
       </c>
       <c r="O25" t="n">
         <v>143.3414560064182</v>
@@ -32886,7 +32886,7 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.91884173367103</v>
+        <v>84.91884173367104</v>
       </c>
       <c r="R25" t="n">
         <v>45.59858769023307</v>
@@ -32895,7 +32895,7 @@
         <v>17.67337092644092</v>
       </c>
       <c r="T25" t="n">
-        <v>4.333064337729385</v>
+        <v>4.333064337729386</v>
       </c>
       <c r="U25" t="n">
         <v>0.05531571494973692</v>
@@ -32938,10 +32938,10 @@
         <v>2.2608097902405</v>
       </c>
       <c r="H26" t="n">
-        <v>23.15351826430052</v>
+        <v>23.15351826430053</v>
       </c>
       <c r="I26" t="n">
-        <v>87.15986943824694</v>
+        <v>87.15986943824696</v>
       </c>
       <c r="J26" t="n">
         <v>191.8834049344248</v>
@@ -32950,34 +32950,34 @@
         <v>287.5834833553052</v>
       </c>
       <c r="L26" t="n">
-        <v>356.7727409733779</v>
+        <v>356.772740973378</v>
       </c>
       <c r="M26" t="n">
-        <v>396.9784170805674</v>
+        <v>396.9784170805675</v>
       </c>
       <c r="N26" t="n">
-        <v>403.4019428970882</v>
+        <v>403.4019428970884</v>
       </c>
       <c r="O26" t="n">
-        <v>380.9210155453843</v>
+        <v>380.9210155453844</v>
       </c>
       <c r="P26" t="n">
         <v>325.1072738488219</v>
       </c>
       <c r="Q26" t="n">
-        <v>244.1420232358339</v>
+        <v>244.142023235834</v>
       </c>
       <c r="R26" t="n">
         <v>142.0155929861949</v>
       </c>
       <c r="S26" t="n">
-        <v>51.51820309510543</v>
+        <v>51.51820309510545</v>
       </c>
       <c r="T26" t="n">
-        <v>9.896694856777792</v>
+        <v>9.896694856777794</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1808647832192399</v>
+        <v>0.18086478321924</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,25 +33020,25 @@
         <v>11.68257462811094</v>
       </c>
       <c r="I27" t="n">
-        <v>41.6476888422665</v>
+        <v>41.64768884226651</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2844414460207</v>
+        <v>114.2844414460208</v>
       </c>
       <c r="K27" t="n">
-        <v>195.3303133892644</v>
+        <v>195.3303133892645</v>
       </c>
       <c r="L27" t="n">
-        <v>262.6457116097329</v>
+        <v>262.645711609733</v>
       </c>
       <c r="M27" t="n">
-        <v>306.4951572506669</v>
+        <v>306.495157250667</v>
       </c>
       <c r="N27" t="n">
         <v>314.6071720582881</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8040989333033</v>
+        <v>287.8040989333034</v>
       </c>
       <c r="P27" t="n">
         <v>230.9881626515413</v>
@@ -33047,16 +33047,16 @@
         <v>154.4094695624617</v>
       </c>
       <c r="R27" t="n">
-        <v>75.10378130587577</v>
+        <v>75.10378130587578</v>
       </c>
       <c r="S27" t="n">
-        <v>22.46853022254758</v>
+        <v>22.46853022254759</v>
       </c>
       <c r="T27" t="n">
-        <v>4.875697585483172</v>
+        <v>4.875697585483173</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07958157103617806</v>
+        <v>0.07958157103617808</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,13 +33096,13 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H28" t="n">
-        <v>9.016461536807114</v>
+        <v>9.016461536807116</v>
       </c>
       <c r="I28" t="n">
         <v>30.49739750895493</v>
       </c>
       <c r="J28" t="n">
-        <v>71.69838586068391</v>
+        <v>71.69838586068393</v>
       </c>
       <c r="K28" t="n">
         <v>117.8224728429395</v>
@@ -33111,10 +33111,10 @@
         <v>150.7722003813328</v>
       </c>
       <c r="M28" t="n">
-        <v>158.9681454797187</v>
+        <v>158.9681454797188</v>
       </c>
       <c r="N28" t="n">
-        <v>155.1882382914868</v>
+        <v>155.1882382914869</v>
       </c>
       <c r="O28" t="n">
         <v>143.3414560064182</v>
@@ -33123,7 +33123,7 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.91884173367103</v>
+        <v>84.91884173367104</v>
       </c>
       <c r="R28" t="n">
         <v>45.59858769023307</v>
@@ -33132,7 +33132,7 @@
         <v>17.67337092644092</v>
       </c>
       <c r="T28" t="n">
-        <v>4.333064337729385</v>
+        <v>4.333064337729386</v>
       </c>
       <c r="U28" t="n">
         <v>0.05531571494973692</v>
@@ -33175,10 +33175,10 @@
         <v>2.2608097902405</v>
       </c>
       <c r="H29" t="n">
-        <v>23.15351826430052</v>
+        <v>23.15351826430053</v>
       </c>
       <c r="I29" t="n">
-        <v>87.15986943824694</v>
+        <v>87.15986943824696</v>
       </c>
       <c r="J29" t="n">
         <v>191.8834049344248</v>
@@ -33187,34 +33187,34 @@
         <v>287.5834833553052</v>
       </c>
       <c r="L29" t="n">
-        <v>356.7727409733779</v>
+        <v>356.772740973378</v>
       </c>
       <c r="M29" t="n">
-        <v>396.9784170805674</v>
+        <v>396.9784170805675</v>
       </c>
       <c r="N29" t="n">
-        <v>403.4019428970882</v>
+        <v>403.4019428970884</v>
       </c>
       <c r="O29" t="n">
-        <v>380.9210155453843</v>
+        <v>380.9210155453844</v>
       </c>
       <c r="P29" t="n">
         <v>325.1072738488219</v>
       </c>
       <c r="Q29" t="n">
-        <v>244.1420232358339</v>
+        <v>244.142023235834</v>
       </c>
       <c r="R29" t="n">
         <v>142.0155929861949</v>
       </c>
       <c r="S29" t="n">
-        <v>51.51820309510543</v>
+        <v>51.51820309510545</v>
       </c>
       <c r="T29" t="n">
-        <v>9.896694856777792</v>
+        <v>9.896694856777794</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1808647832192399</v>
+        <v>0.18086478321924</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,25 +33257,25 @@
         <v>11.68257462811094</v>
       </c>
       <c r="I30" t="n">
-        <v>41.6476888422665</v>
+        <v>41.64768884226651</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2844414460207</v>
+        <v>114.2844414460208</v>
       </c>
       <c r="K30" t="n">
-        <v>195.3303133892644</v>
+        <v>195.3303133892645</v>
       </c>
       <c r="L30" t="n">
-        <v>262.6457116097329</v>
+        <v>262.645711609733</v>
       </c>
       <c r="M30" t="n">
-        <v>306.4951572506669</v>
+        <v>306.495157250667</v>
       </c>
       <c r="N30" t="n">
         <v>314.6071720582881</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8040989333033</v>
+        <v>287.8040989333034</v>
       </c>
       <c r="P30" t="n">
         <v>230.9881626515413</v>
@@ -33284,16 +33284,16 @@
         <v>154.4094695624617</v>
       </c>
       <c r="R30" t="n">
-        <v>75.10378130587577</v>
+        <v>75.10378130587578</v>
       </c>
       <c r="S30" t="n">
-        <v>22.46853022254758</v>
+        <v>22.46853022254759</v>
       </c>
       <c r="T30" t="n">
-        <v>4.875697585483172</v>
+        <v>4.875697585483173</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07958157103617806</v>
+        <v>0.07958157103617808</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,13 +33333,13 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H31" t="n">
-        <v>9.016461536807114</v>
+        <v>9.016461536807116</v>
       </c>
       <c r="I31" t="n">
         <v>30.49739750895493</v>
       </c>
       <c r="J31" t="n">
-        <v>71.69838586068391</v>
+        <v>71.69838586068393</v>
       </c>
       <c r="K31" t="n">
         <v>117.8224728429395</v>
@@ -33348,10 +33348,10 @@
         <v>150.7722003813328</v>
       </c>
       <c r="M31" t="n">
-        <v>158.9681454797187</v>
+        <v>158.9681454797188</v>
       </c>
       <c r="N31" t="n">
-        <v>155.1882382914868</v>
+        <v>155.1882382914869</v>
       </c>
       <c r="O31" t="n">
         <v>143.3414560064182</v>
@@ -33360,7 +33360,7 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.91884173367103</v>
+        <v>84.91884173367104</v>
       </c>
       <c r="R31" t="n">
         <v>45.59858769023307</v>
@@ -33369,7 +33369,7 @@
         <v>17.67337092644092</v>
       </c>
       <c r="T31" t="n">
-        <v>4.333064337729385</v>
+        <v>4.333064337729386</v>
       </c>
       <c r="U31" t="n">
         <v>0.05531571494973692</v>
@@ -33412,10 +33412,10 @@
         <v>2.2608097902405</v>
       </c>
       <c r="H32" t="n">
-        <v>23.15351826430052</v>
+        <v>23.15351826430053</v>
       </c>
       <c r="I32" t="n">
-        <v>87.15986943824694</v>
+        <v>87.15986943824696</v>
       </c>
       <c r="J32" t="n">
         <v>191.8834049344248</v>
@@ -33424,34 +33424,34 @@
         <v>287.5834833553052</v>
       </c>
       <c r="L32" t="n">
-        <v>356.7727409733779</v>
+        <v>356.772740973378</v>
       </c>
       <c r="M32" t="n">
-        <v>396.9784170805674</v>
+        <v>396.9784170805675</v>
       </c>
       <c r="N32" t="n">
-        <v>403.4019428970882</v>
+        <v>403.4019428970884</v>
       </c>
       <c r="O32" t="n">
-        <v>380.9210155453843</v>
+        <v>380.9210155453844</v>
       </c>
       <c r="P32" t="n">
         <v>325.1072738488219</v>
       </c>
       <c r="Q32" t="n">
-        <v>244.1420232358339</v>
+        <v>244.142023235834</v>
       </c>
       <c r="R32" t="n">
         <v>142.0155929861949</v>
       </c>
       <c r="S32" t="n">
-        <v>51.51820309510543</v>
+        <v>51.51820309510545</v>
       </c>
       <c r="T32" t="n">
-        <v>9.896694856777792</v>
+        <v>9.896694856777794</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1808647832192399</v>
+        <v>0.18086478321924</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,25 +33494,25 @@
         <v>11.68257462811094</v>
       </c>
       <c r="I33" t="n">
-        <v>41.6476888422665</v>
+        <v>41.64768884226651</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2844414460207</v>
+        <v>114.2844414460208</v>
       </c>
       <c r="K33" t="n">
-        <v>195.3303133892644</v>
+        <v>195.3303133892645</v>
       </c>
       <c r="L33" t="n">
-        <v>262.6457116097329</v>
+        <v>262.645711609733</v>
       </c>
       <c r="M33" t="n">
-        <v>306.4951572506669</v>
+        <v>306.495157250667</v>
       </c>
       <c r="N33" t="n">
         <v>314.6071720582881</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8040989333033</v>
+        <v>287.8040989333034</v>
       </c>
       <c r="P33" t="n">
         <v>230.9881626515413</v>
@@ -33521,16 +33521,16 @@
         <v>154.4094695624617</v>
       </c>
       <c r="R33" t="n">
-        <v>75.10378130587577</v>
+        <v>75.10378130587578</v>
       </c>
       <c r="S33" t="n">
-        <v>22.46853022254758</v>
+        <v>22.46853022254759</v>
       </c>
       <c r="T33" t="n">
-        <v>4.875697585483172</v>
+        <v>4.875697585483173</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07958157103617806</v>
+        <v>0.07958157103617808</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,13 +33570,13 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H34" t="n">
-        <v>9.016461536807114</v>
+        <v>9.016461536807116</v>
       </c>
       <c r="I34" t="n">
         <v>30.49739750895493</v>
       </c>
       <c r="J34" t="n">
-        <v>71.69838586068391</v>
+        <v>71.69838586068393</v>
       </c>
       <c r="K34" t="n">
         <v>117.8224728429395</v>
@@ -33585,10 +33585,10 @@
         <v>150.7722003813328</v>
       </c>
       <c r="M34" t="n">
-        <v>158.9681454797187</v>
+        <v>158.9681454797188</v>
       </c>
       <c r="N34" t="n">
-        <v>155.1882382914868</v>
+        <v>155.1882382914869</v>
       </c>
       <c r="O34" t="n">
         <v>143.3414560064182</v>
@@ -33597,7 +33597,7 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.91884173367103</v>
+        <v>84.91884173367104</v>
       </c>
       <c r="R34" t="n">
         <v>45.59858769023307</v>
@@ -33606,7 +33606,7 @@
         <v>17.67337092644092</v>
       </c>
       <c r="T34" t="n">
-        <v>4.333064337729385</v>
+        <v>4.333064337729386</v>
       </c>
       <c r="U34" t="n">
         <v>0.05531571494973692</v>
@@ -33649,10 +33649,10 @@
         <v>2.2608097902405</v>
       </c>
       <c r="H35" t="n">
-        <v>23.15351826430052</v>
+        <v>23.15351826430053</v>
       </c>
       <c r="I35" t="n">
-        <v>87.15986943824694</v>
+        <v>87.15986943824696</v>
       </c>
       <c r="J35" t="n">
         <v>191.8834049344248</v>
@@ -33661,34 +33661,34 @@
         <v>287.5834833553052</v>
       </c>
       <c r="L35" t="n">
-        <v>356.7727409733779</v>
+        <v>356.772740973378</v>
       </c>
       <c r="M35" t="n">
-        <v>396.9784170805674</v>
+        <v>396.9784170805675</v>
       </c>
       <c r="N35" t="n">
-        <v>403.4019428970882</v>
+        <v>403.4019428970884</v>
       </c>
       <c r="O35" t="n">
-        <v>380.9210155453843</v>
+        <v>380.9210155453844</v>
       </c>
       <c r="P35" t="n">
         <v>325.1072738488219</v>
       </c>
       <c r="Q35" t="n">
-        <v>244.1420232358339</v>
+        <v>244.142023235834</v>
       </c>
       <c r="R35" t="n">
         <v>142.0155929861949</v>
       </c>
       <c r="S35" t="n">
-        <v>51.51820309510543</v>
+        <v>51.51820309510545</v>
       </c>
       <c r="T35" t="n">
-        <v>9.896694856777792</v>
+        <v>9.896694856777794</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1808647832192399</v>
+        <v>0.18086478321924</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,25 +33731,25 @@
         <v>11.68257462811094</v>
       </c>
       <c r="I36" t="n">
-        <v>41.6476888422665</v>
+        <v>41.64768884226651</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2844414460207</v>
+        <v>114.2844414460208</v>
       </c>
       <c r="K36" t="n">
-        <v>195.3303133892644</v>
+        <v>195.3303133892645</v>
       </c>
       <c r="L36" t="n">
-        <v>262.6457116097329</v>
+        <v>262.645711609733</v>
       </c>
       <c r="M36" t="n">
-        <v>306.4951572506669</v>
+        <v>306.495157250667</v>
       </c>
       <c r="N36" t="n">
         <v>314.6071720582881</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8040989333033</v>
+        <v>287.8040989333034</v>
       </c>
       <c r="P36" t="n">
         <v>230.9881626515413</v>
@@ -33758,16 +33758,16 @@
         <v>154.4094695624617</v>
       </c>
       <c r="R36" t="n">
-        <v>75.10378130587577</v>
+        <v>75.10378130587578</v>
       </c>
       <c r="S36" t="n">
-        <v>22.46853022254758</v>
+        <v>22.46853022254759</v>
       </c>
       <c r="T36" t="n">
-        <v>4.875697585483172</v>
+        <v>4.875697585483173</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07958157103617806</v>
+        <v>0.07958157103617808</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,13 +33807,13 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H37" t="n">
-        <v>9.016461536807114</v>
+        <v>9.016461536807116</v>
       </c>
       <c r="I37" t="n">
         <v>30.49739750895493</v>
       </c>
       <c r="J37" t="n">
-        <v>71.69838586068391</v>
+        <v>71.69838586068393</v>
       </c>
       <c r="K37" t="n">
         <v>117.8224728429395</v>
@@ -33822,10 +33822,10 @@
         <v>150.7722003813328</v>
       </c>
       <c r="M37" t="n">
-        <v>158.9681454797187</v>
+        <v>158.9681454797188</v>
       </c>
       <c r="N37" t="n">
-        <v>155.1882382914868</v>
+        <v>155.1882382914869</v>
       </c>
       <c r="O37" t="n">
         <v>143.3414560064182</v>
@@ -33834,7 +33834,7 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.91884173367103</v>
+        <v>84.91884173367104</v>
       </c>
       <c r="R37" t="n">
         <v>45.59858769023307</v>
@@ -33843,7 +33843,7 @@
         <v>17.67337092644092</v>
       </c>
       <c r="T37" t="n">
-        <v>4.333064337729385</v>
+        <v>4.333064337729386</v>
       </c>
       <c r="U37" t="n">
         <v>0.05531571494973692</v>
@@ -33886,10 +33886,10 @@
         <v>2.2608097902405</v>
       </c>
       <c r="H38" t="n">
-        <v>23.15351826430052</v>
+        <v>23.15351826430053</v>
       </c>
       <c r="I38" t="n">
-        <v>87.15986943824694</v>
+        <v>87.15986943824696</v>
       </c>
       <c r="J38" t="n">
         <v>191.8834049344248</v>
@@ -33898,34 +33898,34 @@
         <v>287.5834833553052</v>
       </c>
       <c r="L38" t="n">
-        <v>356.7727409733779</v>
+        <v>356.772740973378</v>
       </c>
       <c r="M38" t="n">
-        <v>396.9784170805674</v>
+        <v>396.9784170805675</v>
       </c>
       <c r="N38" t="n">
-        <v>403.4019428970882</v>
+        <v>403.4019428970884</v>
       </c>
       <c r="O38" t="n">
-        <v>380.9210155453843</v>
+        <v>380.9210155453844</v>
       </c>
       <c r="P38" t="n">
         <v>325.1072738488219</v>
       </c>
       <c r="Q38" t="n">
-        <v>244.1420232358339</v>
+        <v>244.142023235834</v>
       </c>
       <c r="R38" t="n">
         <v>142.0155929861949</v>
       </c>
       <c r="S38" t="n">
-        <v>51.51820309510543</v>
+        <v>51.51820309510545</v>
       </c>
       <c r="T38" t="n">
-        <v>9.896694856777792</v>
+        <v>9.896694856777794</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1808647832192399</v>
+        <v>0.18086478321924</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,25 +33968,25 @@
         <v>11.68257462811094</v>
       </c>
       <c r="I39" t="n">
-        <v>41.6476888422665</v>
+        <v>41.64768884226651</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2844414460207</v>
+        <v>114.2844414460208</v>
       </c>
       <c r="K39" t="n">
-        <v>195.3303133892644</v>
+        <v>195.3303133892645</v>
       </c>
       <c r="L39" t="n">
-        <v>262.6457116097329</v>
+        <v>262.645711609733</v>
       </c>
       <c r="M39" t="n">
-        <v>306.4951572506669</v>
+        <v>306.495157250667</v>
       </c>
       <c r="N39" t="n">
         <v>314.6071720582881</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8040989333033</v>
+        <v>287.8040989333034</v>
       </c>
       <c r="P39" t="n">
         <v>230.9881626515413</v>
@@ -33995,16 +33995,16 @@
         <v>154.4094695624617</v>
       </c>
       <c r="R39" t="n">
-        <v>75.10378130587577</v>
+        <v>75.10378130587578</v>
       </c>
       <c r="S39" t="n">
-        <v>22.46853022254758</v>
+        <v>22.46853022254759</v>
       </c>
       <c r="T39" t="n">
-        <v>4.875697585483172</v>
+        <v>4.875697585483173</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07958157103617806</v>
+        <v>0.07958157103617808</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,13 +34044,13 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H40" t="n">
-        <v>9.016461536807114</v>
+        <v>9.016461536807116</v>
       </c>
       <c r="I40" t="n">
         <v>30.49739750895493</v>
       </c>
       <c r="J40" t="n">
-        <v>71.69838586068391</v>
+        <v>71.69838586068393</v>
       </c>
       <c r="K40" t="n">
         <v>117.8224728429395</v>
@@ -34059,10 +34059,10 @@
         <v>150.7722003813328</v>
       </c>
       <c r="M40" t="n">
-        <v>158.9681454797187</v>
+        <v>158.9681454797188</v>
       </c>
       <c r="N40" t="n">
-        <v>155.1882382914868</v>
+        <v>155.1882382914869</v>
       </c>
       <c r="O40" t="n">
         <v>143.3414560064182</v>
@@ -34071,7 +34071,7 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.91884173367103</v>
+        <v>84.91884173367104</v>
       </c>
       <c r="R40" t="n">
         <v>45.59858769023307</v>
@@ -34080,7 +34080,7 @@
         <v>17.67337092644092</v>
       </c>
       <c r="T40" t="n">
-        <v>4.333064337729385</v>
+        <v>4.333064337729386</v>
       </c>
       <c r="U40" t="n">
         <v>0.05531571494973692</v>
@@ -34123,10 +34123,10 @@
         <v>2.2608097902405</v>
       </c>
       <c r="H41" t="n">
-        <v>23.15351826430052</v>
+        <v>23.15351826430053</v>
       </c>
       <c r="I41" t="n">
-        <v>87.15986943824694</v>
+        <v>87.15986943824696</v>
       </c>
       <c r="J41" t="n">
         <v>191.8834049344248</v>
@@ -34135,34 +34135,34 @@
         <v>287.5834833553052</v>
       </c>
       <c r="L41" t="n">
-        <v>356.7727409733779</v>
+        <v>356.772740973378</v>
       </c>
       <c r="M41" t="n">
-        <v>396.9784170805674</v>
+        <v>396.9784170805675</v>
       </c>
       <c r="N41" t="n">
-        <v>403.4019428970882</v>
+        <v>403.4019428970884</v>
       </c>
       <c r="O41" t="n">
-        <v>380.9210155453843</v>
+        <v>380.9210155453844</v>
       </c>
       <c r="P41" t="n">
         <v>325.1072738488219</v>
       </c>
       <c r="Q41" t="n">
-        <v>244.1420232358339</v>
+        <v>244.142023235834</v>
       </c>
       <c r="R41" t="n">
         <v>142.0155929861949</v>
       </c>
       <c r="S41" t="n">
-        <v>51.51820309510543</v>
+        <v>51.51820309510545</v>
       </c>
       <c r="T41" t="n">
-        <v>9.896694856777792</v>
+        <v>9.896694856777794</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1808647832192399</v>
+        <v>0.18086478321924</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,25 +34205,25 @@
         <v>11.68257462811094</v>
       </c>
       <c r="I42" t="n">
-        <v>41.6476888422665</v>
+        <v>41.64768884226651</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2844414460207</v>
+        <v>114.2844414460208</v>
       </c>
       <c r="K42" t="n">
-        <v>195.3303133892644</v>
+        <v>195.3303133892645</v>
       </c>
       <c r="L42" t="n">
-        <v>262.6457116097329</v>
+        <v>262.645711609733</v>
       </c>
       <c r="M42" t="n">
-        <v>306.4951572506669</v>
+        <v>306.495157250667</v>
       </c>
       <c r="N42" t="n">
         <v>314.6071720582881</v>
       </c>
       <c r="O42" t="n">
-        <v>287.8040989333033</v>
+        <v>287.8040989333034</v>
       </c>
       <c r="P42" t="n">
         <v>230.9881626515413</v>
@@ -34232,16 +34232,16 @@
         <v>154.4094695624617</v>
       </c>
       <c r="R42" t="n">
-        <v>75.10378130587577</v>
+        <v>75.10378130587578</v>
       </c>
       <c r="S42" t="n">
-        <v>22.46853022254758</v>
+        <v>22.46853022254759</v>
       </c>
       <c r="T42" t="n">
-        <v>4.875697585483172</v>
+        <v>4.875697585483173</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07958157103617806</v>
+        <v>0.07958157103617808</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,13 +34281,13 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H43" t="n">
-        <v>9.016461536807114</v>
+        <v>9.016461536807116</v>
       </c>
       <c r="I43" t="n">
         <v>30.49739750895493</v>
       </c>
       <c r="J43" t="n">
-        <v>71.69838586068391</v>
+        <v>71.69838586068393</v>
       </c>
       <c r="K43" t="n">
         <v>117.8224728429395</v>
@@ -34296,10 +34296,10 @@
         <v>150.7722003813328</v>
       </c>
       <c r="M43" t="n">
-        <v>158.9681454797187</v>
+        <v>158.9681454797188</v>
       </c>
       <c r="N43" t="n">
-        <v>155.1882382914868</v>
+        <v>155.1882382914869</v>
       </c>
       <c r="O43" t="n">
         <v>143.3414560064182</v>
@@ -34308,7 +34308,7 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.91884173367103</v>
+        <v>84.91884173367104</v>
       </c>
       <c r="R43" t="n">
         <v>45.59858769023307</v>
@@ -34317,7 +34317,7 @@
         <v>17.67337092644092</v>
       </c>
       <c r="T43" t="n">
-        <v>4.333064337729385</v>
+        <v>4.333064337729386</v>
       </c>
       <c r="U43" t="n">
         <v>0.05531571494973692</v>
@@ -34360,10 +34360,10 @@
         <v>2.2608097902405</v>
       </c>
       <c r="H44" t="n">
-        <v>23.15351826430052</v>
+        <v>23.15351826430053</v>
       </c>
       <c r="I44" t="n">
-        <v>87.15986943824694</v>
+        <v>87.15986943824696</v>
       </c>
       <c r="J44" t="n">
         <v>191.8834049344248</v>
@@ -34372,34 +34372,34 @@
         <v>287.5834833553052</v>
       </c>
       <c r="L44" t="n">
-        <v>356.7727409733779</v>
+        <v>356.772740973378</v>
       </c>
       <c r="M44" t="n">
-        <v>396.9784170805674</v>
+        <v>396.9784170805675</v>
       </c>
       <c r="N44" t="n">
-        <v>403.4019428970882</v>
+        <v>403.4019428970884</v>
       </c>
       <c r="O44" t="n">
-        <v>380.9210155453843</v>
+        <v>380.9210155453844</v>
       </c>
       <c r="P44" t="n">
         <v>325.1072738488219</v>
       </c>
       <c r="Q44" t="n">
-        <v>244.1420232358339</v>
+        <v>244.142023235834</v>
       </c>
       <c r="R44" t="n">
         <v>142.0155929861949</v>
       </c>
       <c r="S44" t="n">
-        <v>51.51820309510543</v>
+        <v>51.51820309510545</v>
       </c>
       <c r="T44" t="n">
-        <v>9.896694856777792</v>
+        <v>9.896694856777794</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1808647832192399</v>
+        <v>0.18086478321924</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,25 +34442,25 @@
         <v>11.68257462811094</v>
       </c>
       <c r="I45" t="n">
-        <v>41.6476888422665</v>
+        <v>41.64768884226651</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2844414460207</v>
+        <v>114.2844414460208</v>
       </c>
       <c r="K45" t="n">
-        <v>195.3303133892644</v>
+        <v>195.3303133892645</v>
       </c>
       <c r="L45" t="n">
-        <v>262.6457116097329</v>
+        <v>262.645711609733</v>
       </c>
       <c r="M45" t="n">
-        <v>306.4951572506669</v>
+        <v>306.495157250667</v>
       </c>
       <c r="N45" t="n">
         <v>314.6071720582881</v>
       </c>
       <c r="O45" t="n">
-        <v>287.8040989333033</v>
+        <v>287.8040989333034</v>
       </c>
       <c r="P45" t="n">
         <v>230.9881626515413</v>
@@ -34469,16 +34469,16 @@
         <v>154.4094695624617</v>
       </c>
       <c r="R45" t="n">
-        <v>75.10378130587577</v>
+        <v>75.10378130587578</v>
       </c>
       <c r="S45" t="n">
-        <v>22.46853022254758</v>
+        <v>22.46853022254759</v>
       </c>
       <c r="T45" t="n">
-        <v>4.875697585483172</v>
+        <v>4.875697585483173</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07958157103617806</v>
+        <v>0.07958157103617808</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,13 +34518,13 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H46" t="n">
-        <v>9.016461536807114</v>
+        <v>9.016461536807116</v>
       </c>
       <c r="I46" t="n">
         <v>30.49739750895493</v>
       </c>
       <c r="J46" t="n">
-        <v>71.69838586068391</v>
+        <v>71.69838586068393</v>
       </c>
       <c r="K46" t="n">
         <v>117.8224728429395</v>
@@ -34533,10 +34533,10 @@
         <v>150.7722003813328</v>
       </c>
       <c r="M46" t="n">
-        <v>158.9681454797187</v>
+        <v>158.9681454797188</v>
       </c>
       <c r="N46" t="n">
-        <v>155.1882382914868</v>
+        <v>155.1882382914869</v>
       </c>
       <c r="O46" t="n">
         <v>143.3414560064182</v>
@@ -34545,7 +34545,7 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.91884173367103</v>
+        <v>84.91884173367104</v>
       </c>
       <c r="R46" t="n">
         <v>45.59858769023307</v>
@@ -34554,7 +34554,7 @@
         <v>17.67337092644092</v>
       </c>
       <c r="T46" t="n">
-        <v>4.333064337729385</v>
+        <v>4.333064337729386</v>
       </c>
       <c r="U46" t="n">
         <v>0.05531571494973692</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34790,13 +34790,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N6" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35033,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,19 +35495,19 @@
         <v>494.9316771333179</v>
       </c>
       <c r="M12" t="n">
-        <v>168.8235956646737</v>
+        <v>630.0661870786485</v>
       </c>
       <c r="N12" t="n">
-        <v>662.6078343185083</v>
+        <v>385.1502744454137</v>
       </c>
       <c r="O12" t="n">
-        <v>539.0701737655884</v>
+        <v>145.2078544888588</v>
       </c>
       <c r="P12" t="n">
         <v>415.4765238771482</v>
       </c>
       <c r="Q12" t="n">
-        <v>14.42769547644016</v>
+        <v>224.5049832122893</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>68.33023601597662</v>
+        <v>68.33023601597664</v>
       </c>
       <c r="K13" t="n">
         <v>185.5440112890221</v>
@@ -35586,7 +35586,7 @@
         <v>209.9229681520754</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.74782875394213</v>
+        <v>88.74782875394214</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>179.9341155798122</v>
+        <v>179.9341155798123</v>
       </c>
       <c r="K14" t="n">
-        <v>391.6390448814893</v>
+        <v>391.6390448814894</v>
       </c>
       <c r="L14" t="n">
-        <v>538.667540553841</v>
+        <v>538.6675405538413</v>
       </c>
       <c r="M14" t="n">
-        <v>616.1457173461271</v>
+        <v>616.1457173461273</v>
       </c>
       <c r="N14" t="n">
-        <v>611.3358037124815</v>
+        <v>611.3358037124816</v>
       </c>
       <c r="O14" t="n">
-        <v>531.6229853864428</v>
+        <v>531.622985386443</v>
       </c>
       <c r="P14" t="n">
-        <v>415.6729862650349</v>
+        <v>415.672986265035</v>
       </c>
       <c r="Q14" t="n">
-        <v>234.1513240212891</v>
+        <v>234.1513240212892</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>113.5378501197629</v>
       </c>
       <c r="K15" t="n">
-        <v>321.954111427484</v>
+        <v>321.9541114274841</v>
       </c>
       <c r="L15" t="n">
-        <v>494.9316771333179</v>
+        <v>124.0913318298588</v>
       </c>
       <c r="M15" t="n">
-        <v>630.0661870786485</v>
+        <v>630.0661870786486</v>
       </c>
       <c r="N15" t="n">
-        <v>183.2654599749547</v>
+        <v>662.6078343185084</v>
       </c>
       <c r="O15" t="n">
-        <v>233.5548188395549</v>
+        <v>145.2078544888589</v>
       </c>
       <c r="P15" t="n">
         <v>415.4765238771482</v>
       </c>
       <c r="Q15" t="n">
-        <v>224.5049832122893</v>
+        <v>204.3499185228906</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>68.33023601597662</v>
+        <v>68.33023601597667</v>
       </c>
       <c r="K16" t="n">
         <v>185.5440112890221</v>
       </c>
       <c r="L16" t="n">
-        <v>268.3532559136144</v>
+        <v>268.3532559136145</v>
       </c>
       <c r="M16" t="n">
         <v>288.5430527135248</v>
       </c>
       <c r="N16" t="n">
-        <v>289.3114409426809</v>
+        <v>289.311440942681</v>
       </c>
       <c r="O16" t="n">
-        <v>257.9176141924233</v>
+        <v>257.9176141924223</v>
       </c>
       <c r="P16" t="n">
-        <v>209.9229681520754</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.74782875394213</v>
+        <v>88.74782875394217</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>179.934115579814</v>
+        <v>179.9341155798123</v>
       </c>
       <c r="K17" t="n">
-        <v>391.6390448814893</v>
+        <v>391.6390448814885</v>
       </c>
       <c r="L17" t="n">
-        <v>538.667540553841</v>
+        <v>538.6675405538413</v>
       </c>
       <c r="M17" t="n">
-        <v>616.1457173461271</v>
+        <v>616.1457173461273</v>
       </c>
       <c r="N17" t="n">
-        <v>611.3358037124815</v>
+        <v>611.3358037124816</v>
       </c>
       <c r="O17" t="n">
-        <v>531.6229853864428</v>
+        <v>531.622985386443</v>
       </c>
       <c r="P17" t="n">
-        <v>415.6729862650349</v>
+        <v>415.672986265035</v>
       </c>
       <c r="Q17" t="n">
-        <v>234.1513240212891</v>
+        <v>234.1513240212892</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>113.5378501197629</v>
       </c>
       <c r="K18" t="n">
-        <v>321.954111427484</v>
+        <v>321.9541114274841</v>
       </c>
       <c r="L18" t="n">
-        <v>494.9316771333179</v>
+        <v>124.0913318298588</v>
       </c>
       <c r="M18" t="n">
-        <v>630.0661870786485</v>
+        <v>630.0661870786486</v>
       </c>
       <c r="N18" t="n">
-        <v>662.6078343185083</v>
+        <v>662.6078343185084</v>
       </c>
       <c r="O18" t="n">
-        <v>396.2903509915504</v>
+        <v>443.5155584393972</v>
       </c>
       <c r="P18" t="n">
-        <v>97.013755237211</v>
+        <v>97.01375523721109</v>
       </c>
       <c r="Q18" t="n">
-        <v>14.42769547644016</v>
+        <v>224.5049832122893</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>68.33023601597661</v>
+        <v>68.33023601597667</v>
       </c>
       <c r="K19" t="n">
         <v>185.5440112890221</v>
       </c>
       <c r="L19" t="n">
-        <v>268.3532559136144</v>
+        <v>268.3532559136145</v>
       </c>
       <c r="M19" t="n">
         <v>288.5430527135248</v>
       </c>
       <c r="N19" t="n">
-        <v>289.3114409426809</v>
+        <v>289.311440942681</v>
       </c>
       <c r="O19" t="n">
         <v>257.9176141924233</v>
       </c>
       <c r="P19" t="n">
-        <v>209.9229681520754</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.74782875394212</v>
+        <v>88.74782875394217</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>494.931677133318</v>
       </c>
       <c r="M21" t="n">
-        <v>324.5508321526145</v>
+        <v>630.0661870786486</v>
       </c>
       <c r="N21" t="n">
         <v>183.2654599749548</v>
@@ -36215,10 +36215,10 @@
         <v>539.0701737655884</v>
       </c>
       <c r="P21" t="n">
-        <v>415.4765238771482</v>
+        <v>320.0384566869629</v>
       </c>
       <c r="Q21" t="n">
-        <v>224.5049832122893</v>
+        <v>14.42769547644022</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>68.33023601597577</v>
+        <v>68.33023601597667</v>
       </c>
       <c r="K22" t="n">
         <v>185.5440112890221</v>
@@ -36294,7 +36294,7 @@
         <v>257.9176141924233</v>
       </c>
       <c r="P22" t="n">
-        <v>209.9229681520755</v>
+        <v>209.9229681520745</v>
       </c>
       <c r="Q22" t="n">
         <v>88.74782875394217</v>
@@ -36361,22 +36361,22 @@
         <v>391.6390448814894</v>
       </c>
       <c r="L23" t="n">
-        <v>538.6675405538411</v>
+        <v>538.6675405538413</v>
       </c>
       <c r="M23" t="n">
-        <v>616.1457173461272</v>
+        <v>616.1457173461273</v>
       </c>
       <c r="N23" t="n">
-        <v>611.3358037124815</v>
+        <v>611.3358037124816</v>
       </c>
       <c r="O23" t="n">
-        <v>531.6229853864429</v>
+        <v>531.622985386443</v>
       </c>
       <c r="P23" t="n">
         <v>415.672986265035</v>
       </c>
       <c r="Q23" t="n">
-        <v>234.1513240212891</v>
+        <v>234.1513240212892</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>113.5378501197629</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>321.954111427484</v>
+        <v>57.4888744149055</v>
       </c>
       <c r="L24" t="n">
-        <v>494.9316771333179</v>
+        <v>494.931677133318</v>
       </c>
       <c r="M24" t="n">
-        <v>324.5508321526149</v>
+        <v>223.2115449414027</v>
       </c>
       <c r="N24" t="n">
-        <v>183.2654599749548</v>
+        <v>662.6078343185084</v>
       </c>
       <c r="O24" t="n">
         <v>539.0701737655884</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>68.33023601597665</v>
+        <v>68.33023601597667</v>
       </c>
       <c r="K25" t="n">
         <v>185.5440112890221</v>
       </c>
       <c r="L25" t="n">
-        <v>268.3532559136144</v>
+        <v>268.3532559136145</v>
       </c>
       <c r="M25" t="n">
         <v>288.5430527135248</v>
@@ -36534,7 +36534,7 @@
         <v>209.9229681520755</v>
       </c>
       <c r="Q25" t="n">
-        <v>88.74782875394216</v>
+        <v>88.74782875394217</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,22 +36598,22 @@
         <v>391.6390448814894</v>
       </c>
       <c r="L26" t="n">
-        <v>538.6675405538411</v>
+        <v>538.6675405538413</v>
       </c>
       <c r="M26" t="n">
-        <v>616.1457173461272</v>
+        <v>616.1457173461273</v>
       </c>
       <c r="N26" t="n">
-        <v>611.3358037124815</v>
+        <v>611.3358037124816</v>
       </c>
       <c r="O26" t="n">
-        <v>531.6229853864429</v>
+        <v>531.622985386443</v>
       </c>
       <c r="P26" t="n">
         <v>415.672986265035</v>
       </c>
       <c r="Q26" t="n">
-        <v>234.1513240212891</v>
+        <v>234.1513240212892</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>113.5378501197629</v>
       </c>
       <c r="K27" t="n">
-        <v>321.954111427484</v>
+        <v>57.4888744149055</v>
       </c>
       <c r="L27" t="n">
-        <v>494.9316771333179</v>
+        <v>494.931677133318</v>
       </c>
       <c r="M27" t="n">
-        <v>164.3611233286486</v>
+        <v>164.3611233286487</v>
       </c>
       <c r="N27" t="n">
-        <v>343.4551687989211</v>
+        <v>607.9204058114994</v>
       </c>
       <c r="O27" t="n">
         <v>539.0701737655884</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>68.33023601597661</v>
+        <v>68.33023601597662</v>
       </c>
       <c r="K28" t="n">
         <v>185.5440112890221</v>
@@ -36771,7 +36771,7 @@
         <v>209.9229681520754</v>
       </c>
       <c r="Q28" t="n">
-        <v>88.74782875394212</v>
+        <v>88.74782875394213</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,22 +36835,22 @@
         <v>391.6390448814894</v>
       </c>
       <c r="L29" t="n">
-        <v>538.6675405538411</v>
+        <v>538.6675405538413</v>
       </c>
       <c r="M29" t="n">
-        <v>616.1457173461272</v>
+        <v>616.1457173461273</v>
       </c>
       <c r="N29" t="n">
-        <v>611.3358037124815</v>
+        <v>611.3358037124816</v>
       </c>
       <c r="O29" t="n">
-        <v>531.6229853864429</v>
+        <v>531.622985386443</v>
       </c>
       <c r="P29" t="n">
         <v>415.672986265035</v>
       </c>
       <c r="Q29" t="n">
-        <v>234.1513240212891</v>
+        <v>234.1513240212892</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,19 +36911,19 @@
         <v>113.5378501197629</v>
       </c>
       <c r="K30" t="n">
-        <v>301.7990467380855</v>
+        <v>321.9541114274841</v>
       </c>
       <c r="L30" t="n">
-        <v>124.0913318298587</v>
+        <v>494.931677133318</v>
       </c>
       <c r="M30" t="n">
-        <v>630.0661870786485</v>
+        <v>324.5508321526145</v>
       </c>
       <c r="N30" t="n">
-        <v>662.6078343185084</v>
+        <v>183.2654599749548</v>
       </c>
       <c r="O30" t="n">
-        <v>145.2078544888589</v>
+        <v>539.0701737655884</v>
       </c>
       <c r="P30" t="n">
         <v>415.4765238771482</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.33023601597664</v>
+        <v>68.33023601597662</v>
       </c>
       <c r="K31" t="n">
         <v>185.5440112890221</v>
@@ -37008,7 +37008,7 @@
         <v>209.9229681520754</v>
       </c>
       <c r="Q31" t="n">
-        <v>88.74782875394214</v>
+        <v>88.74782875394213</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,22 +37072,22 @@
         <v>391.6390448814894</v>
       </c>
       <c r="L32" t="n">
-        <v>538.6675405538411</v>
+        <v>538.6675405538413</v>
       </c>
       <c r="M32" t="n">
-        <v>616.1457173461272</v>
+        <v>616.1457173461273</v>
       </c>
       <c r="N32" t="n">
-        <v>611.3358037124815</v>
+        <v>611.3358037124816</v>
       </c>
       <c r="O32" t="n">
-        <v>531.6229853864429</v>
+        <v>531.622985386443</v>
       </c>
       <c r="P32" t="n">
         <v>415.672986265035</v>
       </c>
       <c r="Q32" t="n">
-        <v>234.1513240212891</v>
+        <v>234.1513240212892</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,19 +37148,19 @@
         <v>113.5378501197629</v>
       </c>
       <c r="K33" t="n">
-        <v>301.7990467380855</v>
+        <v>321.9541114274841</v>
       </c>
       <c r="L33" t="n">
-        <v>124.0913318298587</v>
+        <v>124.0913318298588</v>
       </c>
       <c r="M33" t="n">
-        <v>630.0661870786485</v>
+        <v>216.0488031125202</v>
       </c>
       <c r="N33" t="n">
         <v>662.6078343185084</v>
       </c>
       <c r="O33" t="n">
-        <v>145.2078544888589</v>
+        <v>539.0701737655884</v>
       </c>
       <c r="P33" t="n">
         <v>415.4765238771482</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.33023601597667</v>
+        <v>68.33023601597664</v>
       </c>
       <c r="K34" t="n">
         <v>185.5440112890221</v>
@@ -37233,7 +37233,7 @@
         <v>268.3532559136144</v>
       </c>
       <c r="M34" t="n">
-        <v>288.5430527135248</v>
+        <v>288.5430527135244</v>
       </c>
       <c r="N34" t="n">
         <v>289.311440942681</v>
@@ -37242,10 +37242,10 @@
         <v>257.9176141924233</v>
       </c>
       <c r="P34" t="n">
-        <v>209.9229681520742</v>
+        <v>209.9229681520754</v>
       </c>
       <c r="Q34" t="n">
-        <v>88.74782875394217</v>
+        <v>88.74782875394214</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,22 +37309,22 @@
         <v>391.6390448814894</v>
       </c>
       <c r="L35" t="n">
-        <v>538.6675405538411</v>
+        <v>538.6675405538413</v>
       </c>
       <c r="M35" t="n">
-        <v>616.1457173461272</v>
+        <v>616.1457173461273</v>
       </c>
       <c r="N35" t="n">
-        <v>611.3358037124815</v>
+        <v>611.3358037124816</v>
       </c>
       <c r="O35" t="n">
-        <v>531.6229853864429</v>
+        <v>531.622985386443</v>
       </c>
       <c r="P35" t="n">
         <v>415.672986265035</v>
       </c>
       <c r="Q35" t="n">
-        <v>234.1513240212891</v>
+        <v>234.1513240212892</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>113.5378501197629</v>
       </c>
       <c r="K36" t="n">
-        <v>321.954111427484</v>
+        <v>321.9541114274841</v>
       </c>
       <c r="L36" t="n">
-        <v>494.9316771333179</v>
+        <v>494.931677133318</v>
       </c>
       <c r="M36" t="n">
-        <v>324.5508321526149</v>
+        <v>164.3611233286487</v>
       </c>
       <c r="N36" t="n">
-        <v>183.2654599749548</v>
+        <v>662.6078343185084</v>
       </c>
       <c r="O36" t="n">
-        <v>539.0701737655884</v>
+        <v>219.9175082460006</v>
       </c>
       <c r="P36" t="n">
         <v>415.4765238771482</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.33023601597664</v>
+        <v>68.33023601597662</v>
       </c>
       <c r="K37" t="n">
         <v>185.5440112890221</v>
@@ -37470,10 +37470,10 @@
         <v>268.3532559136144</v>
       </c>
       <c r="M37" t="n">
-        <v>288.5430527135246</v>
+        <v>288.5430527135248</v>
       </c>
       <c r="N37" t="n">
-        <v>289.311440942681</v>
+        <v>289.3114409426809</v>
       </c>
       <c r="O37" t="n">
         <v>257.9176141924233</v>
@@ -37482,7 +37482,7 @@
         <v>209.9229681520754</v>
       </c>
       <c r="Q37" t="n">
-        <v>88.74782875394214</v>
+        <v>88.74782875394213</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,22 +37546,22 @@
         <v>391.6390448814894</v>
       </c>
       <c r="L38" t="n">
-        <v>538.6675405538411</v>
+        <v>538.6675405538413</v>
       </c>
       <c r="M38" t="n">
-        <v>616.1457173461272</v>
+        <v>616.1457173461273</v>
       </c>
       <c r="N38" t="n">
-        <v>611.3358037124815</v>
+        <v>611.3358037124816</v>
       </c>
       <c r="O38" t="n">
-        <v>531.6229853864429</v>
+        <v>531.622985386443</v>
       </c>
       <c r="P38" t="n">
         <v>415.672986265035</v>
       </c>
       <c r="Q38" t="n">
-        <v>234.1513240212891</v>
+        <v>234.1513240212892</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>113.5378501197629</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>321.954111427484</v>
+        <v>321.9541114274841</v>
       </c>
       <c r="L39" t="n">
-        <v>494.9316771333179</v>
+        <v>494.931677133318</v>
       </c>
       <c r="M39" t="n">
-        <v>324.5508321526149</v>
+        <v>630.0661870786486</v>
       </c>
       <c r="N39" t="n">
-        <v>183.2654599749548</v>
+        <v>662.6078343185084</v>
       </c>
       <c r="O39" t="n">
-        <v>539.0701737655884</v>
+        <v>186.2130632557008</v>
       </c>
       <c r="P39" t="n">
-        <v>415.4765238771482</v>
+        <v>97.01375523721109</v>
       </c>
       <c r="Q39" t="n">
         <v>224.5049832122893</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.33023601597664</v>
+        <v>68.33023601597678</v>
       </c>
       <c r="K40" t="n">
         <v>185.5440112890221</v>
@@ -37719,7 +37719,7 @@
         <v>209.9229681520754</v>
       </c>
       <c r="Q40" t="n">
-        <v>88.74782875394214</v>
+        <v>88.74782875394213</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,22 +37783,22 @@
         <v>391.6390448814894</v>
       </c>
       <c r="L41" t="n">
-        <v>538.6675405538411</v>
+        <v>538.6675405538413</v>
       </c>
       <c r="M41" t="n">
-        <v>616.1457173461272</v>
+        <v>616.1457173461273</v>
       </c>
       <c r="N41" t="n">
-        <v>611.3358037124815</v>
+        <v>611.3358037124816</v>
       </c>
       <c r="O41" t="n">
-        <v>531.6229853864429</v>
+        <v>531.622985386443</v>
       </c>
       <c r="P41" t="n">
         <v>415.672986265035</v>
       </c>
       <c r="Q41" t="n">
-        <v>234.1513240212891</v>
+        <v>234.1513240212892</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,19 +37859,19 @@
         <v>113.5378501197629</v>
       </c>
       <c r="K42" t="n">
-        <v>321.954111427484</v>
+        <v>321.9541114274841</v>
       </c>
       <c r="L42" t="n">
-        <v>494.9316771333179</v>
+        <v>494.931677133318</v>
       </c>
       <c r="M42" t="n">
-        <v>324.5508321526149</v>
+        <v>630.0661870786486</v>
       </c>
       <c r="N42" t="n">
         <v>183.2654599749548</v>
       </c>
       <c r="O42" t="n">
-        <v>539.0701737655884</v>
+        <v>233.5548188395542</v>
       </c>
       <c r="P42" t="n">
         <v>415.4765238771482</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.93025611631304</v>
+        <v>24.93025611631279</v>
       </c>
       <c r="K43" t="n">
-        <v>142.1440313893585</v>
+        <v>142.1440313893583</v>
       </c>
       <c r="L43" t="n">
-        <v>224.9532760139508</v>
+        <v>224.9532760139506</v>
       </c>
       <c r="M43" t="n">
-        <v>245.1430728138612</v>
+        <v>245.143072813861</v>
       </c>
       <c r="N43" t="n">
-        <v>245.9114610430173</v>
+        <v>245.9114610430171</v>
       </c>
       <c r="O43" t="n">
-        <v>214.5176342927597</v>
+        <v>214.5176342927595</v>
       </c>
       <c r="P43" t="n">
-        <v>166.5229882524119</v>
+        <v>166.5229882524116</v>
       </c>
       <c r="Q43" t="n">
-        <v>45.34784885427855</v>
+        <v>45.3478488542783</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,22 +38020,22 @@
         <v>391.6390448814894</v>
       </c>
       <c r="L44" t="n">
-        <v>538.6675405538411</v>
+        <v>538.6675405538413</v>
       </c>
       <c r="M44" t="n">
-        <v>616.1457173461272</v>
+        <v>616.1457173461273</v>
       </c>
       <c r="N44" t="n">
-        <v>611.3358037124815</v>
+        <v>611.3358037124816</v>
       </c>
       <c r="O44" t="n">
-        <v>531.6229853864429</v>
+        <v>531.622985386443</v>
       </c>
       <c r="P44" t="n">
-        <v>415.672986265035</v>
+        <v>415.6729862650353</v>
       </c>
       <c r="Q44" t="n">
-        <v>234.1513240212891</v>
+        <v>234.1513240212892</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>321.954111427484</v>
+        <v>57.4888744149055</v>
       </c>
       <c r="L45" t="n">
-        <v>124.0913318298587</v>
+        <v>406.5398036360092</v>
       </c>
       <c r="M45" t="n">
-        <v>630.0661870786485</v>
+        <v>630.0661870786486</v>
       </c>
       <c r="N45" t="n">
         <v>662.6078343185084</v>
@@ -38111,7 +38111,7 @@
         <v>539.0701737655884</v>
       </c>
       <c r="P45" t="n">
-        <v>114.9969900307832</v>
+        <v>97.01375523721109</v>
       </c>
       <c r="Q45" t="n">
         <v>224.5049832122893</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>24.93025611631301</v>
+        <v>24.93025611631279</v>
       </c>
       <c r="K46" t="n">
-        <v>142.1440313893585</v>
+        <v>142.1440313893583</v>
       </c>
       <c r="L46" t="n">
-        <v>224.9532760139508</v>
+        <v>224.9532760139506</v>
       </c>
       <c r="M46" t="n">
-        <v>245.1430728138612</v>
+        <v>245.143072813861</v>
       </c>
       <c r="N46" t="n">
-        <v>245.9114610430173</v>
+        <v>245.9114610430171</v>
       </c>
       <c r="O46" t="n">
-        <v>214.5176342927597</v>
+        <v>214.5176342927595</v>
       </c>
       <c r="P46" t="n">
-        <v>166.5229882524118</v>
+        <v>166.5229882524116</v>
       </c>
       <c r="Q46" t="n">
-        <v>45.34784885427852</v>
+        <v>45.3478488542783</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
